--- a/silviculture/nutrient_application_workbook.xlsx
+++ b/silviculture/nutrient_application_workbook.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhember\Documents\Code_Python\fcgadgets\macgyver\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhember\Documents\Code_Python\fcgadgets\silviculture\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{315B1BF9-EBB4-4013-80D0-886277495DA2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8AD04C4-0F63-4F01-B9FE-DA23D7FECFB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{1E81D065-865C-4E4F-B119-59A43652556F}"/>
+    <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" activeTab="1" xr2:uid="{1E81D065-865C-4E4F-B119-59A43652556F}"/>
   </bookViews>
   <sheets>
     <sheet name="Production Emissions" sheetId="6" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="152">
   <si>
     <t>Emissions (NH3-N ha-1)</t>
   </si>
@@ -115,9 +115,6 @@
     <t>Variable</t>
   </si>
   <si>
-    <t>NRCAN 2007</t>
-  </si>
-  <si>
     <t>Mass of NH3</t>
   </si>
   <si>
@@ -127,25 +124,13 @@
     <t>Emissions from ammonia production (tCO2 tNH3)</t>
   </si>
   <si>
-    <t>Ratio of Urea to NH3</t>
-  </si>
-  <si>
     <t>Emissions from ammonia production (tCO2 tUrea)</t>
   </si>
   <si>
-    <t>Standard dose of nitrogne (kg N ha-1)</t>
-  </si>
-  <si>
-    <t>Standard dose of nitrogne (kg Urea ha-1)</t>
-  </si>
-  <si>
     <t>Results from Wood and Cowy 2004</t>
   </si>
   <si>
     <t>Emission factor (g CO2 kg N)</t>
-  </si>
-  <si>
-    <t>Emissions from ammonia production (tCO2 tN-1)</t>
   </si>
   <si>
     <t>GHG emissions (tCO2e ha-1)</t>
@@ -726,6 +711,24 @@
       </rPr>
       <t>Economics.</t>
     </r>
+  </si>
+  <si>
+    <t>Liu et al. (2020)</t>
+  </si>
+  <si>
+    <t>t NH3 per t Urea-1</t>
+  </si>
+  <si>
+    <t>Standard dose of nitrogen (t Urea ha-1)</t>
+  </si>
+  <si>
+    <t>Standard dose of nitrogen (kg N ha-1)</t>
+  </si>
+  <si>
+    <t>NRCAN (2007) Canada ranks most efficient of all other regions</t>
+  </si>
+  <si>
+    <t>Scott and Perry (2008)</t>
   </si>
 </sst>
 </file>
@@ -1247,9 +1250,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62FD3A88-4C78-4B99-8994-6411E467EBFA}">
-  <dimension ref="A1:L24"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1261,7 +1266,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="29" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B1" s="29"/>
       <c r="C1" s="29"/>
@@ -1283,7 +1288,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B3" s="20"/>
       <c r="C3" s="20"/>
@@ -1292,13 +1297,11 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B4">
-        <v>1.68</v>
-      </c>
-      <c r="C4" t="s">
-        <v>25</v>
+        <f>14+3</f>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -1306,244 +1309,291 @@
         <v>26</v>
       </c>
       <c r="B5">
-        <f>14+3</f>
-        <v>17</v>
+        <f>2*14+4*1+1*12+1*16</f>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>147</v>
       </c>
       <c r="B6">
-        <f>2*14+4*1+1*12+1*16</f>
-        <v>60</v>
+        <f>2*B4/B5</f>
+        <v>0.56666666666666665</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>149</v>
       </c>
       <c r="B7">
-        <f>B6/B5</f>
-        <v>3.5294117647058822</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>148</v>
       </c>
       <c r="B8">
-        <f>B4/B7</f>
-        <v>0.47599999999999998</v>
+        <f>B7/0.46/1000</f>
+        <v>0.43478260869565211</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B9">
-        <f>B8/0.46</f>
-        <v>1.034782608695652</v>
+        <v>1.81</v>
+      </c>
+      <c r="C9" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B10">
-        <v>200</v>
+        <f>B$6*B9</f>
+        <v>1.0256666666666667</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B11">
-        <f>B10/0.46</f>
-        <v>434.78260869565213</v>
+        <f>B10*B$8</f>
+        <v>0.44594202898550722</v>
+      </c>
+      <c r="C11" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="B12">
-        <f>B8*B11/1000</f>
-        <v>0.2069565217391304</v>
+        <v>2.6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" s="20"/>
-      <c r="C13" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="D13" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" s="21" t="s">
-        <v>44</v>
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13">
+        <f>B$6*B12</f>
+        <v>1.4733333333333334</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B14">
-        <v>4019</v>
-      </c>
-      <c r="C14">
-        <v>200</v>
-      </c>
-      <c r="D14">
-        <f>B14*C14/1000000</f>
-        <v>0.80379999999999996</v>
-      </c>
-      <c r="E14">
-        <f>B14/1000</f>
-        <v>4.0190000000000001</v>
+        <f>B13*B$8</f>
+        <v>0.64057971014492743</v>
+      </c>
+      <c r="C14" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15">
+        <v>0.8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18">
+        <v>5.3E-3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>34</v>
       </c>
-      <c r="B15">
-        <v>1316</v>
-      </c>
-      <c r="C15">
-        <v>200</v>
-      </c>
-      <c r="D15">
-        <f>B15*C15/1000000</f>
-        <v>0.26319999999999999</v>
-      </c>
-      <c r="E15">
-        <f>B15/1000</f>
-        <v>1.3160000000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16">
-        <v>913</v>
-      </c>
-      <c r="C16">
-        <v>200</v>
-      </c>
-      <c r="D16">
-        <f>B16*C16/1000000</f>
-        <v>0.18260000000000001</v>
-      </c>
-      <c r="E16">
-        <f>B16/1000</f>
-        <v>0.91300000000000003</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17">
-        <v>1707</v>
-      </c>
-      <c r="C17">
-        <v>200</v>
-      </c>
-      <c r="D17">
-        <f>B17*C17/1000000</f>
-        <v>0.34139999999999998</v>
-      </c>
-      <c r="E17">
-        <f>B17/1000</f>
-        <v>1.7070000000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18"/>
-      <c r="G18"/>
-      <c r="H18"/>
-      <c r="I18"/>
-      <c r="J18"/>
-      <c r="K18"/>
-      <c r="L18"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
-        <v>37</v>
-      </c>
       <c r="B19">
-        <v>5.3E-3</v>
+        <v>0.1</v>
       </c>
       <c r="C19" t="s">
-        <v>38</v>
-      </c>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="18"/>
-      <c r="L19" s="18"/>
+        <v>33</v>
+      </c>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+      <c r="G19"/>
+      <c r="H19"/>
+      <c r="I19"/>
+      <c r="J19"/>
+      <c r="K19"/>
+      <c r="L19"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B20">
-        <v>0.1</v>
+        <v>5.2</v>
       </c>
       <c r="C20" t="s">
-        <v>38</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B21">
-        <v>5.2</v>
-      </c>
-      <c r="C21" t="s">
-        <v>47</v>
+        <f>B8*B20</f>
+        <v>2.2608695652173911</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B22">
-        <f>B11/1000*B21</f>
-        <v>2.2608695652173911</v>
+        <f>B21/B19</f>
+        <v>22.60869565217391</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="B23">
-        <f>B22/B20</f>
-        <v>22.60869565217391</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>36</v>
-      </c>
-      <c r="B24">
-        <f>B23*B19</f>
+        <f>B22*B18</f>
         <v>0.11982608695652172</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B25">
+        <f>B23+B14</f>
+        <v>0.76040579710144918</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="20"/>
+      <c r="C27" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="D27" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="E27" s="21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28">
+        <v>4019</v>
+      </c>
+      <c r="C28">
+        <v>200</v>
+      </c>
+      <c r="D28">
+        <f>B28*C28/1000000</f>
+        <v>0.80379999999999996</v>
+      </c>
+      <c r="E28">
+        <f>B28/1000</f>
+        <v>4.0190000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29">
+        <v>1316</v>
+      </c>
+      <c r="C29">
+        <v>200</v>
+      </c>
+      <c r="D29">
+        <f>B29*C29/1000000</f>
+        <v>0.26319999999999999</v>
+      </c>
+      <c r="E29">
+        <f>B29/1000</f>
+        <v>1.3160000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30">
+        <v>913</v>
+      </c>
+      <c r="C30">
+        <v>200</v>
+      </c>
+      <c r="D30">
+        <f>B30*C30/1000000</f>
+        <v>0.18260000000000001</v>
+      </c>
+      <c r="E30">
+        <f>B30/1000</f>
+        <v>0.91300000000000003</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>1707</v>
+      </c>
+      <c r="C31">
+        <v>200</v>
+      </c>
+      <c r="D31">
+        <f>B31*C31/1000000</f>
+        <v>0.34139999999999998</v>
+      </c>
+      <c r="E31">
+        <f>B31/1000</f>
+        <v>1.7070000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -1555,8 +1605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5FB36F1-226E-4D2B-813A-223DF1078A35}">
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1569,7 +1619,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="29" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B1" s="30"/>
       <c r="C1" s="29"/>
@@ -1586,56 +1636,56 @@
         <v>10</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B3" s="4">
         <v>0.435</v>
       </c>
       <c r="C3" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B4" s="4">
-        <v>0.2</v>
+        <v>0.45</v>
       </c>
       <c r="C4" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B5" s="4">
-        <v>0.65</v>
+        <v>0.5</v>
       </c>
       <c r="C5" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B6" s="4">
-        <v>0.15</v>
+        <v>0.05</v>
       </c>
       <c r="C6" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B8" s="35"/>
       <c r="C8" s="7"/>
@@ -1643,7 +1693,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B9" s="4">
         <v>1198</v>
@@ -1651,19 +1701,19 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B10" s="4">
         <f>17/1000</f>
         <v>1.7000000000000001E-2</v>
       </c>
       <c r="C10" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B11" s="4">
         <f>B10*B3</f>
@@ -1672,7 +1722,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B13" s="35"/>
       <c r="C13" s="7"/>
@@ -1680,7 +1730,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B14" s="4">
         <v>516</v>
@@ -1688,19 +1738,19 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B15" s="4">
         <f>7/1000</f>
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="C15" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B16" s="4">
         <f>B3*B15</f>
@@ -1709,16 +1759,16 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B17" s="4">
         <f>B4*B16</f>
-        <v>6.0900000000000006E-4</v>
+        <v>1.3702499999999999E-3</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B19" s="35"/>
       <c r="C19" s="7"/>
@@ -1726,7 +1776,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B20" s="4">
         <v>1000</v>
@@ -1734,7 +1784,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B21" s="4">
         <v>11374</v>
@@ -1742,42 +1792,42 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B22" s="4">
         <v>84</v>
       </c>
       <c r="C22" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B23" s="4">
         <f>B22/B20</f>
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="C23" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B24" s="4">
         <f>B23/B21</f>
         <v>7.3852646386495524E-6</v>
       </c>
       <c r="C24" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B26" s="35"/>
       <c r="C26" s="7"/>
@@ -1785,7 +1835,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B27" s="4">
         <v>72</v>
@@ -1793,7 +1843,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B28" s="4">
         <f>0.539957*B27</f>
@@ -1802,28 +1852,28 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B29" s="4">
         <f>B24*B28</f>
         <v>2.8711622437137334E-4</v>
       </c>
       <c r="C29" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B30" s="4">
         <f>B29*B3*(B5+B6)</f>
-        <v>9.9916446081237931E-5</v>
+        <v>6.8692556680851073E-5</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B32" s="35"/>
       <c r="C32" s="7"/>
@@ -1831,39 +1881,39 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B33" s="4">
         <v>100</v>
       </c>
       <c r="C33" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B34" s="4">
         <f>B33*B24</f>
         <v>7.3852646386495522E-4</v>
       </c>
       <c r="C34" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B35" s="4">
         <f>B34*B3*B6</f>
-        <v>4.8188851767188323E-5</v>
+        <v>1.6062950589062777E-5</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B37" s="35"/>
       <c r="C37" s="7"/>
@@ -1871,70 +1921,70 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B38" s="4">
-        <v>200</v>
+        <v>300</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B39" s="4">
-        <v>200</v>
+        <v>300</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B40" s="4">
-        <v>20</v>
+        <v>80</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B41" s="4">
         <f>64/1000/1000</f>
         <v>6.3999999999999997E-5</v>
       </c>
       <c r="C41" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B42" s="4">
         <f>B41*B38*B3*B4</f>
-        <v>1.1136E-3</v>
+        <v>3.7584000000000003E-3</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B43" s="4">
         <f>B41*B39*B3*B5</f>
-        <v>3.6191999999999995E-3</v>
+        <v>4.176E-3</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B44" s="4">
         <f>B41*B40*B3*B6</f>
-        <v>8.352E-5</v>
+        <v>1.1136E-4</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B46" s="35"/>
       <c r="C46" s="7"/>
@@ -1942,11 +1992,11 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B47" s="4">
         <f>B11+B17+B30+B35+B42+B43+B44</f>
-        <v>1.2968425297848427E-2</v>
+        <v>1.6895765507269917E-2</v>
       </c>
     </row>
   </sheetData>
@@ -1972,7 +2022,7 @@
   <sheetData>
     <row r="1" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="31" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B1" s="29"/>
       <c r="C1" s="29"/>
@@ -2104,7 +2154,7 @@
         <v>200</v>
       </c>
       <c r="C13" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="J13" s="2"/>
       <c r="L13" s="2"/>
@@ -2117,7 +2167,7 @@
         <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="L14" s="2"/>
     </row>
@@ -2219,7 +2269,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="29" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B1" s="29"/>
       <c r="C1" s="29"/>
@@ -2239,7 +2289,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -2249,13 +2299,13 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B4">
         <v>200</v>
       </c>
       <c r="C4" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="E4" s="18"/>
       <c r="F4" s="18"/>
@@ -2263,7 +2313,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B5">
         <v>0.25</v>
@@ -2292,7 +2342,7 @@
         <v>0.71</v>
       </c>
       <c r="C7" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E7" s="24"/>
       <c r="F7" s="24"/>
@@ -2300,7 +2350,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B8" s="8">
         <v>0.1</v>
@@ -2368,7 +2418,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B14">
         <v>10</v>
@@ -2376,25 +2426,25 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B16">
         <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B17">
         <f>B16/B11</f>
@@ -2405,7 +2455,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B18" s="1">
         <f>B17*B12/1000*3.667</f>
@@ -2416,7 +2466,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B19" s="1">
         <f>B16*B13/1000*3.667</f>
@@ -2427,7 +2477,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B20" s="1">
         <f>B19+B18</f>
@@ -2438,7 +2488,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="37" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B21" s="38"/>
       <c r="C21" s="38"/>
@@ -2447,20 +2497,20 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B22">
         <v>62</v>
       </c>
       <c r="C22" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B23">
         <f>B22/B11</f>
@@ -2469,7 +2519,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B24" s="1">
         <f>B23*B12/1000*3.667</f>
@@ -2478,7 +2528,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B25" s="1">
         <f>B22*B13/1000*4.667</f>
@@ -2487,7 +2537,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B26" s="1">
         <f>B25+B24</f>
@@ -2496,38 +2546,38 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B27" s="39"/>
       <c r="C27" s="7"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B28">
         <v>0.49</v>
       </c>
       <c r="C28" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B29">
         <f>1-B28</f>
         <v>0.51</v>
       </c>
       <c r="C29" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E29" s="8"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B30" s="8">
         <f>B28*B20+B29*B26</f>
@@ -2536,14 +2586,14 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B32" s="9">
         <v>20000</v>
@@ -2551,7 +2601,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B33" s="1">
         <f>B30*B32/1000000</f>
@@ -2560,7 +2610,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B34">
         <f>250+25</f>
@@ -2569,7 +2619,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B35" s="9">
         <f>B34*B32/1000000</f>
@@ -2578,7 +2628,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B36" s="8">
         <f>B35/B33</f>
@@ -2609,7 +2659,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="32" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B1" s="33"/>
       <c r="C1" s="33"/>
@@ -2617,13 +2667,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="26" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D2" s="26" t="s">
         <v>10</v>
@@ -2631,7 +2681,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B3" s="15">
         <v>-9.1999999999999993</v>
@@ -2640,12 +2690,12 @@
         <v>-10.9</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B4" s="15">
         <v>38.200000000000003</v>
@@ -2654,12 +2704,12 @@
         <v>51.5</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B5" s="15">
         <v>246.6</v>
@@ -2668,12 +2718,12 @@
         <v>155.4</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="15" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B6" s="15">
         <v>59</v>
@@ -2682,12 +2732,12 @@
         <v>15.4</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B7" s="15">
         <v>-0.1</v>
@@ -2696,12 +2746,12 @@
         <v>-0.2</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B8" s="15">
         <v>1.9</v>
@@ -2710,12 +2760,12 @@
         <v>3.3</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B9" s="15">
         <v>6.4</v>
@@ -2724,12 +2774,12 @@
         <v>11.3</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B10" s="15">
         <v>18.7</v>
@@ -2738,12 +2788,12 @@
         <v>32.9</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B11" s="15">
         <v>17.3</v>
@@ -2752,12 +2802,12 @@
         <v>30.5</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B12" s="15">
         <v>7.3</v>
@@ -2766,12 +2816,12 @@
         <v>12.8</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B13" s="15">
         <v>0.2</v>
@@ -2780,12 +2830,12 @@
         <v>0.4</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B14" s="15">
         <v>0</v>
@@ -2794,12 +2844,12 @@
         <v>0</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B15" s="15">
         <v>3.7</v>
@@ -2808,12 +2858,12 @@
         <v>6.5</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B16" s="15">
         <v>8.5</v>
@@ -2822,12 +2872,12 @@
         <v>14.9</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B17" s="15">
         <v>3</v>
@@ -2836,12 +2886,12 @@
         <v>2.9</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B18" s="15">
         <v>17.5</v>
@@ -2850,12 +2900,12 @@
         <v>14.3</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="15" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B19" s="15">
         <v>87.5</v>
@@ -2864,12 +2914,12 @@
         <v>71.400000000000006</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="15" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B20" s="15">
         <v>10</v>
@@ -2878,12 +2928,12 @@
         <v>6.3</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="15" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B21" s="15">
         <v>5</v>
@@ -2892,12 +2942,12 @@
         <v>3.1</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="15" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B22" s="15">
         <v>3.4</v>
@@ -2906,12 +2956,12 @@
         <v>9.8000000000000007</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="15" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B23" s="15">
         <v>6.8</v>
@@ -2920,12 +2970,12 @@
         <v>19.600000000000001</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="15" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B24" s="15">
         <v>-9.1999999999999993</v>
@@ -2934,12 +2984,12 @@
         <v>-14.2</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="15" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B25" s="15">
         <v>0.6</v>
@@ -2948,12 +2998,12 @@
         <v>1.4</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="15" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B26" s="15">
         <v>38.9</v>
@@ -2962,12 +3012,12 @@
         <v>11.8</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="15" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B27" s="15">
         <v>-3.96</v>
@@ -2976,12 +3026,12 @@
         <v>-4.5</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="27" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B28" s="28">
         <f>AVERAGE(B3:B27)</f>
@@ -2995,7 +3045,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="27" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B29" s="28">
         <f>MEDIAN(B3:B27)</f>
@@ -3009,7 +3059,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="27" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B30" s="28">
         <f>STDEV(B3:B27)/SQRT(COUNT(B3:B27))</f>
@@ -3044,7 +3094,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="29" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B1" s="29"/>
       <c r="C1" s="29"/>
@@ -3062,7 +3112,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B3" s="9">
         <v>404760</v>
@@ -3070,7 +3120,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B4" s="13">
         <v>4000000</v>
@@ -3078,7 +3128,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B5">
         <v>0.75</v>
@@ -3086,7 +3136,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B6" s="13">
         <f>B5*B4</f>
@@ -3095,7 +3145,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B7" s="11">
         <v>423.77600000000001</v>
@@ -3103,7 +3153,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B8" s="9">
         <f>B7*B6</f>
@@ -3112,7 +3162,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B9" s="11">
         <v>900</v>
@@ -3120,7 +3170,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B10" s="12">
         <f>B9*B8/1000</f>
@@ -3129,7 +3179,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B11" s="9">
         <f>B10/1000000</f>
@@ -3138,7 +3188,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B12" s="14">
         <f>535+0.1*535</f>
@@ -3148,7 +3198,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B13" s="13">
         <f>B3*B12/1000000</f>
@@ -3157,7 +3207,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B14" s="12">
         <f>B11-B13</f>
@@ -3166,7 +3216,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B15" s="10">
         <f>B14/B13</f>
@@ -3178,7 +3228,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B17" s="9">
         <v>404760</v>
@@ -3186,7 +3236,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B18" s="9">
         <v>12000000</v>
@@ -3194,7 +3244,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B19" s="14">
         <f>535+0.1*535</f>
@@ -3203,7 +3253,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B20" s="13">
         <f>B19*B17</f>
@@ -3212,7 +3262,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B21">
         <f>B20/B18</f>

--- a/silviculture/nutrient_application_workbook.xlsx
+++ b/silviculture/nutrient_application_workbook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhember\Documents\Code_Python\fcgadgets\silviculture\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8AD04C4-0F63-4F01-B9FE-DA23D7FECFB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B284227F-C782-47B6-9133-A3F76BCDCDD1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" activeTab="1" xr2:uid="{1E81D065-865C-4E4F-B119-59A43652556F}"/>
+    <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" activeTab="3" xr2:uid="{1E81D065-865C-4E4F-B119-59A43652556F}"/>
   </bookViews>
   <sheets>
     <sheet name="Production Emissions" sheetId="6" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="157">
   <si>
     <t>Emissions (NH3-N ha-1)</t>
   </si>
@@ -210,24 +210,9 @@
     <t>GHG benefit (tCO2e/ha)</t>
   </si>
   <si>
-    <t>GHG benefit (MtCO2e/yr)</t>
-  </si>
-  <si>
     <t>Cost ($/ha)</t>
   </si>
   <si>
-    <t>Mitigation cost</t>
-  </si>
-  <si>
-    <t>Applied NUE (kgC/kgN)</t>
-  </si>
-  <si>
-    <t>Utilized NUE (kgC/kgN)</t>
-  </si>
-  <si>
-    <t>Cost ($M/yr)</t>
-  </si>
-  <si>
     <t>Total merch volume production (m3)</t>
   </si>
   <si>
@@ -342,9 +327,6 @@
     <t>GHG benefit (total):</t>
   </si>
   <si>
-    <t>FCI demo 10-year response (Nov 2020)</t>
-  </si>
-  <si>
     <t>Based on implementation level from RL analysis</t>
   </si>
   <si>
@@ -358,12 +340,6 @@
   </si>
   <si>
     <t>Fraction of footprint that is coastal region</t>
-  </si>
-  <si>
-    <t>Example calculation of area-integrated GHG benefit:</t>
-  </si>
-  <si>
-    <t>Hypothetical area treated (ha/year)</t>
   </si>
   <si>
     <t>Actual response (MgC/ha)</t>
@@ -729,6 +705,45 @@
   </si>
   <si>
     <t>Scott and Perry (2008)</t>
+  </si>
+  <si>
+    <t>FCI demo 10-year response (Apr 2021)</t>
+  </si>
+  <si>
+    <t>Applied NUE for ecosystem (kgC/kgN)</t>
+  </si>
+  <si>
+    <t>Utilized NUE for ecosystem (kgC/kgN)</t>
+  </si>
+  <si>
+    <t>Percent increase in GHG benefit (cumu. 2050) from including footprint responses:</t>
+  </si>
+  <si>
+    <t>Interior w/o footprint (tCO2e/ha)</t>
+  </si>
+  <si>
+    <t>Coastal w/o footprint (tCO2e/ha)</t>
+  </si>
+  <si>
+    <t>Interior w footprint (tCO2e/ha)</t>
+  </si>
+  <si>
+    <t>Coastal w footprint (tCO2e/ha)</t>
+  </si>
+  <si>
+    <t>Interior change (%)</t>
+  </si>
+  <si>
+    <t>Coastal change (%)</t>
+  </si>
+  <si>
+    <t>From demo (April 14, 2021)</t>
+  </si>
+  <si>
+    <t>Utilized NUE from VNGT config (kgC/kgN)</t>
+  </si>
+  <si>
+    <t>Applied NUE from VNGT config (kgC/kgN)</t>
   </si>
 </sst>
 </file>
@@ -856,7 +871,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -936,6 +951,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1252,7 +1268,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62FD3A88-4C78-4B99-8994-6411E467EBFA}">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
@@ -1266,7 +1282,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="29" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B1" s="29"/>
       <c r="C1" s="29"/>
@@ -1315,7 +1331,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B6">
         <f>2*B4/B5</f>
@@ -1324,7 +1340,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="B7">
         <v>200</v>
@@ -1332,7 +1348,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="B8">
         <f>B7/0.46/1000</f>
@@ -1347,7 +1363,7 @@
         <v>1.81</v>
       </c>
       <c r="C9" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -1368,7 +1384,7 @@
         <v>0.44594202898550722</v>
       </c>
       <c r="C11" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -1379,7 +1395,7 @@
         <v>2.6</v>
       </c>
       <c r="C12" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -1400,7 +1416,7 @@
         <v>0.64057971014492743</v>
       </c>
       <c r="C14" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -1411,7 +1427,7 @@
         <v>0.8</v>
       </c>
       <c r="C15" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
@@ -1511,7 +1527,7 @@
       </c>
       <c r="B27" s="20"/>
       <c r="C27" s="21" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D27" s="21" t="s">
         <v>38</v>
@@ -1605,7 +1621,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5FB36F1-226E-4D2B-813A-223DF1078A35}">
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
@@ -1619,7 +1635,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="29" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="B1" s="30"/>
       <c r="C1" s="29"/>
@@ -1636,56 +1652,56 @@
         <v>10</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="B3" s="4">
         <v>0.435</v>
       </c>
       <c r="C3" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="B4" s="4">
         <v>0.45</v>
       </c>
       <c r="C4" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B5" s="4">
         <v>0.5</v>
       </c>
       <c r="C5" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B6" s="4">
         <v>0.05</v>
       </c>
       <c r="C6" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B8" s="35"/>
       <c r="C8" s="7"/>
@@ -1693,7 +1709,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="B9" s="4">
         <v>1198</v>
@@ -1701,19 +1717,19 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B10" s="4">
         <f>17/1000</f>
         <v>1.7000000000000001E-2</v>
       </c>
       <c r="C10" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="B11" s="4">
         <f>B10*B3</f>
@@ -1722,7 +1738,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="B13" s="35"/>
       <c r="C13" s="7"/>
@@ -1730,7 +1746,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="B14" s="4">
         <v>516</v>
@@ -1738,19 +1754,19 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B15" s="4">
         <f>7/1000</f>
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="C15" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="B16" s="4">
         <f>B3*B15</f>
@@ -1759,7 +1775,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="B17" s="4">
         <f>B4*B16</f>
@@ -1768,7 +1784,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="B19" s="35"/>
       <c r="C19" s="7"/>
@@ -1776,7 +1792,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B20" s="4">
         <v>1000</v>
@@ -1784,7 +1800,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="B21" s="4">
         <v>11374</v>
@@ -1792,42 +1808,42 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="B22" s="4">
         <v>84</v>
       </c>
       <c r="C22" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="B23" s="4">
         <f>B22/B20</f>
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="C23" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="B24" s="4">
         <f>B23/B21</f>
         <v>7.3852646386495524E-6</v>
       </c>
       <c r="C24" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B26" s="35"/>
       <c r="C26" s="7"/>
@@ -1835,7 +1851,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="B27" s="4">
         <v>72</v>
@@ -1843,7 +1859,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="B28" s="4">
         <f>0.539957*B27</f>
@@ -1852,19 +1868,19 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B29" s="4">
         <f>B24*B28</f>
         <v>2.8711622437137334E-4</v>
       </c>
       <c r="C29" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B30" s="4">
         <f>B29*B3*(B5+B6)</f>
@@ -1873,7 +1889,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="B32" s="35"/>
       <c r="C32" s="7"/>
@@ -1881,30 +1897,30 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="B33" s="4">
         <v>100</v>
       </c>
       <c r="C33" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B34" s="4">
         <f>B33*B24</f>
         <v>7.3852646386495522E-4</v>
       </c>
       <c r="C34" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B35" s="4">
         <f>B34*B3*B6</f>
@@ -1913,7 +1929,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B37" s="35"/>
       <c r="C37" s="7"/>
@@ -1921,7 +1937,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="B38" s="4">
         <v>300</v>
@@ -1929,7 +1945,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="B39" s="4">
         <v>300</v>
@@ -1937,7 +1953,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="B40" s="4">
         <v>80</v>
@@ -1945,19 +1961,19 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="B41" s="4">
         <f>64/1000/1000</f>
         <v>6.3999999999999997E-5</v>
       </c>
       <c r="C41" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="B42" s="4">
         <f>B41*B38*B3*B4</f>
@@ -1966,7 +1982,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="B43" s="4">
         <f>B41*B39*B3*B5</f>
@@ -1975,7 +1991,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="B44" s="4">
         <f>B41*B40*B3*B6</f>
@@ -1984,7 +2000,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="B46" s="35"/>
       <c r="C46" s="7"/>
@@ -1992,7 +2008,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="B47" s="4">
         <f>B11+B17+B30+B35+B42+B43+B44</f>
@@ -2022,7 +2038,7 @@
   <sheetData>
     <row r="1" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="31" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="B1" s="29"/>
       <c r="C1" s="29"/>
@@ -2154,7 +2170,7 @@
         <v>200</v>
       </c>
       <c r="C13" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="J13" s="2"/>
       <c r="L13" s="2"/>
@@ -2167,7 +2183,7 @@
         <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="L14" s="2"/>
     </row>
@@ -2247,16 +2263,14 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65A87448-68AD-4EEC-9600-55379D8CF7AC}">
-  <dimension ref="A1:U36"/>
+  <dimension ref="A1:U41"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="44.109375" customWidth="1"/>
-    <col min="2" max="2" width="15.88671875" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" customWidth="1"/>
     <col min="3" max="3" width="60.6640625" customWidth="1"/>
     <col min="4" max="4" width="11.109375" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
@@ -2269,7 +2283,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="29" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="B1" s="29"/>
       <c r="C1" s="29"/>
@@ -2289,7 +2303,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -2305,7 +2319,7 @@
         <v>200</v>
       </c>
       <c r="C4" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E4" s="18"/>
       <c r="F4" s="18"/>
@@ -2342,7 +2356,7 @@
         <v>0.71</v>
       </c>
       <c r="C7" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E7" s="24"/>
       <c r="F7" s="24"/>
@@ -2350,7 +2364,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="B8" s="8">
         <v>0.1</v>
@@ -2426,213 +2440,267 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>53</v>
+        <v>145</v>
       </c>
       <c r="B16">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C16" t="s">
-        <v>94</v>
+        <v>144</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>54</v>
+        <v>156</v>
       </c>
       <c r="B17">
-        <f>B16/B11</f>
-        <v>125</v>
+        <v>19</v>
+      </c>
+      <c r="C17" t="s">
+        <v>144</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>46</v>
-      </c>
-      <c r="B18" s="1">
-        <f>B17*B12/1000*3.667</f>
-        <v>13.017850000000001</v>
+        <v>146</v>
+      </c>
+      <c r="B18">
+        <f>B16/B11</f>
+        <v>165</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>47</v>
-      </c>
-      <c r="B19" s="1">
-        <f>B16*B13/1000*3.667</f>
-        <v>6.5089250000000001E-2</v>
+        <v>155</v>
+      </c>
+      <c r="B19">
+        <f>B17/B11</f>
+        <v>95</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B20" s="1">
-        <f>B19+B18</f>
-        <v>13.082939250000001</v>
+        <f>B19*B12/1000*3.667</f>
+        <v>9.8935659999999999</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="37" t="s">
-        <v>92</v>
-      </c>
-      <c r="B21" s="38"/>
-      <c r="C21" s="38"/>
+      <c r="A21" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="1">
+        <f>B16*B13/1000*3.667</f>
+        <v>8.5917810000000011E-2</v>
+      </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>53</v>
-      </c>
-      <c r="B22">
-        <v>62</v>
-      </c>
-      <c r="C22" t="s">
-        <v>94</v>
+        <v>48</v>
+      </c>
+      <c r="B22" s="1">
+        <f>B21+B20</f>
+        <v>9.9794838099999996</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>54</v>
-      </c>
-      <c r="B23">
-        <f>B22/B11</f>
-        <v>310</v>
-      </c>
+      <c r="A23" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="B23" s="38"/>
+      <c r="C23" s="38"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>46</v>
-      </c>
-      <c r="B24" s="1">
-        <f>B23*B12/1000*3.667</f>
-        <v>32.284267999999997</v>
+        <v>145</v>
+      </c>
+      <c r="B24">
+        <v>63</v>
+      </c>
+      <c r="C24" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>47</v>
-      </c>
-      <c r="B25" s="1">
-        <f>B22*B13/1000*4.667</f>
-        <v>0.20544134</v>
+        <v>156</v>
+      </c>
+      <c r="B25">
+        <v>36</v>
+      </c>
+      <c r="C25" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>48</v>
-      </c>
-      <c r="B26" s="1">
-        <f>B25+B24</f>
-        <v>32.489709339999997</v>
+        <v>146</v>
+      </c>
+      <c r="B26">
+        <f>B24/B11</f>
+        <v>315</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="B27" s="39"/>
-      <c r="C27" s="7"/>
+      <c r="A27" t="s">
+        <v>155</v>
+      </c>
+      <c r="B27">
+        <f>B25/B11</f>
+        <v>180</v>
+      </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>98</v>
-      </c>
-      <c r="B28">
-        <v>0.49</v>
-      </c>
-      <c r="C28" t="s">
-        <v>95</v>
+        <v>46</v>
+      </c>
+      <c r="B28" s="1">
+        <f>B27*B12/1000*3.667</f>
+        <v>18.745704</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>99</v>
-      </c>
-      <c r="B29">
-        <f>1-B28</f>
-        <v>0.51</v>
-      </c>
-      <c r="C29" t="s">
-        <v>95</v>
+        <v>47</v>
+      </c>
+      <c r="B29" s="1">
+        <f>B24*B13/1000*4.667</f>
+        <v>0.20875491000000002</v>
       </c>
       <c r="E29" s="8"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>49</v>
-      </c>
-      <c r="B30" s="8">
-        <f>B28*B20+B29*B26</f>
-        <v>22.9803919959</v>
+        <v>48</v>
+      </c>
+      <c r="B30" s="1">
+        <f>B29+B28</f>
+        <v>18.95445891</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="B31" s="7"/>
+        <v>88</v>
+      </c>
+      <c r="B31" s="39"/>
       <c r="C31" s="7"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>101</v>
-      </c>
-      <c r="B32" s="9">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+      <c r="B32">
+        <v>0.49</v>
+      </c>
+      <c r="C32" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>50</v>
-      </c>
-      <c r="B33" s="1">
-        <f>B30*B32/1000000</f>
-        <v>0.45960783991799997</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+      <c r="B33">
+        <f>1-B32</f>
+        <v>0.51</v>
+      </c>
+      <c r="C33" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>51</v>
-      </c>
-      <c r="B34">
-        <f>250+25</f>
-        <v>275</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>55</v>
-      </c>
-      <c r="B35" s="9">
-        <f>B34*B32/1000000</f>
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+      <c r="B34" s="8">
+        <f>B32*B22+B33*B30</f>
+        <v>14.556721111</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>52</v>
-      </c>
-      <c r="B36" s="8">
-        <f>B35/B33</f>
-        <v>11.966723633307195</v>
+        <v>148</v>
+      </c>
+      <c r="B36">
+        <v>36</v>
+      </c>
+      <c r="C36" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>149</v>
+      </c>
+      <c r="B37">
+        <v>63</v>
+      </c>
+      <c r="C37" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>150</v>
+      </c>
+      <c r="B38" s="1">
+        <f>B36+B22</f>
+        <v>45.979483809999998</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>151</v>
+      </c>
+      <c r="B39" s="1">
+        <f>B37+B30</f>
+        <v>81.95445891</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>152</v>
+      </c>
+      <c r="B40" s="41">
+        <f>B38/B36*100-100</f>
+        <v>27.720788361111119</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>153</v>
+      </c>
+      <c r="B41" s="41">
+        <f>B39/B37*100-100</f>
+        <v>30.08644271428571</v>
       </c>
     </row>
   </sheetData>
@@ -2659,7 +2727,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="32" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="B1" s="33"/>
       <c r="C1" s="33"/>
@@ -2667,13 +2735,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="26" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="D2" s="26" t="s">
         <v>10</v>
@@ -2681,7 +2749,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B3" s="15">
         <v>-9.1999999999999993</v>
@@ -2690,12 +2758,12 @@
         <v>-10.9</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B4" s="15">
         <v>38.200000000000003</v>
@@ -2704,12 +2772,12 @@
         <v>51.5</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B5" s="15">
         <v>246.6</v>
@@ -2718,12 +2786,12 @@
         <v>155.4</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="15" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B6" s="15">
         <v>59</v>
@@ -2732,12 +2800,12 @@
         <v>15.4</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B7" s="15">
         <v>-0.1</v>
@@ -2746,12 +2814,12 @@
         <v>-0.2</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B8" s="15">
         <v>1.9</v>
@@ -2760,12 +2828,12 @@
         <v>3.3</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B9" s="15">
         <v>6.4</v>
@@ -2774,12 +2842,12 @@
         <v>11.3</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B10" s="15">
         <v>18.7</v>
@@ -2788,12 +2856,12 @@
         <v>32.9</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B11" s="15">
         <v>17.3</v>
@@ -2802,12 +2870,12 @@
         <v>30.5</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B12" s="15">
         <v>7.3</v>
@@ -2816,12 +2884,12 @@
         <v>12.8</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B13" s="15">
         <v>0.2</v>
@@ -2830,12 +2898,12 @@
         <v>0.4</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B14" s="15">
         <v>0</v>
@@ -2844,12 +2912,12 @@
         <v>0</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B15" s="15">
         <v>3.7</v>
@@ -2858,12 +2926,12 @@
         <v>6.5</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B16" s="15">
         <v>8.5</v>
@@ -2872,12 +2940,12 @@
         <v>14.9</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B17" s="15">
         <v>3</v>
@@ -2886,12 +2954,12 @@
         <v>2.9</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B18" s="15">
         <v>17.5</v>
@@ -2900,12 +2968,12 @@
         <v>14.3</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="15" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B19" s="15">
         <v>87.5</v>
@@ -2914,12 +2982,12 @@
         <v>71.400000000000006</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="15" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B20" s="15">
         <v>10</v>
@@ -2928,12 +2996,12 @@
         <v>6.3</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="15" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B21" s="15">
         <v>5</v>
@@ -2942,12 +3010,12 @@
         <v>3.1</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="15" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B22" s="15">
         <v>3.4</v>
@@ -2956,12 +3024,12 @@
         <v>9.8000000000000007</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="15" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B23" s="15">
         <v>6.8</v>
@@ -2970,12 +3038,12 @@
         <v>19.600000000000001</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="15" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B24" s="15">
         <v>-9.1999999999999993</v>
@@ -2984,12 +3052,12 @@
         <v>-14.2</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="15" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B25" s="15">
         <v>0.6</v>
@@ -2998,12 +3066,12 @@
         <v>1.4</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="15" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B26" s="15">
         <v>38.9</v>
@@ -3012,12 +3080,12 @@
         <v>11.8</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="15" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B27" s="15">
         <v>-3.96</v>
@@ -3026,12 +3094,12 @@
         <v>-4.5</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="27" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B28" s="28">
         <f>AVERAGE(B3:B27)</f>
@@ -3045,7 +3113,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="27" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B29" s="28">
         <f>MEDIAN(B3:B27)</f>
@@ -3059,7 +3127,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="27" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B30" s="28">
         <f>STDEV(B3:B27)/SQRT(COUNT(B3:B27))</f>
@@ -3094,7 +3162,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="29" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="B1" s="29"/>
       <c r="C1" s="29"/>
@@ -3112,7 +3180,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B3" s="9">
         <v>404760</v>
@@ -3120,7 +3188,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B4" s="13">
         <v>4000000</v>
@@ -3128,7 +3196,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B5">
         <v>0.75</v>
@@ -3136,7 +3204,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B6" s="13">
         <f>B5*B4</f>
@@ -3145,7 +3213,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B7" s="11">
         <v>423.77600000000001</v>
@@ -3153,7 +3221,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B8" s="9">
         <f>B7*B6</f>
@@ -3162,7 +3230,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B9" s="11">
         <v>900</v>
@@ -3170,7 +3238,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B10" s="12">
         <f>B9*B8/1000</f>
@@ -3179,7 +3247,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B11" s="9">
         <f>B10/1000000</f>
@@ -3188,7 +3256,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B12" s="14">
         <f>535+0.1*535</f>
@@ -3198,7 +3266,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B13" s="13">
         <f>B3*B12/1000000</f>
@@ -3207,7 +3275,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B14" s="12">
         <f>B11-B13</f>
@@ -3216,7 +3284,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B15" s="10">
         <f>B14/B13</f>
@@ -3228,7 +3296,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B17" s="9">
         <v>404760</v>
@@ -3236,7 +3304,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B18" s="9">
         <v>12000000</v>
@@ -3244,7 +3312,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B19" s="14">
         <f>535+0.1*535</f>
@@ -3253,7 +3321,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B20" s="13">
         <f>B19*B17</f>
@@ -3262,7 +3330,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B21">
         <f>B20/B18</f>

--- a/silviculture/nutrient_application_workbook.xlsx
+++ b/silviculture/nutrient_application_workbook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhember\Documents\Code_Python\fcgadgets\silviculture\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B284227F-C782-47B6-9133-A3F76BCDCDD1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05D0D80A-FBEC-4B16-BCDC-69F2B7F5A7DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" activeTab="3" xr2:uid="{1E81D065-865C-4E4F-B119-59A43652556F}"/>
+    <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" firstSheet="1" activeTab="5" xr2:uid="{1E81D065-865C-4E4F-B119-59A43652556F}"/>
   </bookViews>
   <sheets>
     <sheet name="Production Emissions" sheetId="6" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="166">
   <si>
     <t>Emissions (NH3-N ha-1)</t>
   </si>
@@ -744,6 +744,33 @@
   </si>
   <si>
     <t>Applied NUE from VNGT config (kgC/kgN)</t>
+  </si>
+  <si>
+    <t>NPV</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>Age at fert</t>
+  </si>
+  <si>
+    <t>Age at harvest</t>
+  </si>
+  <si>
+    <t>Discount rate</t>
+  </si>
+  <si>
+    <t>Costs</t>
+  </si>
+  <si>
+    <t>Gross revenue</t>
+  </si>
+  <si>
+    <t>Net revenue</t>
+  </si>
+  <si>
+    <t>Name</t>
   </si>
 </sst>
 </file>
@@ -2265,7 +2292,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65A87448-68AD-4EEC-9600-55379D8CF7AC}">
   <dimension ref="A1:U41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -3147,10 +3174,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB0DB444-DA86-46C3-9325-6709E921F8CA}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A27" sqref="A1:A27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3158,16 +3185,17 @@
     <col min="1" max="1" width="33.88671875" customWidth="1"/>
     <col min="2" max="2" width="23.109375" customWidth="1"/>
     <col min="3" max="3" width="16.33203125" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="29" t="s">
         <v>137</v>
       </c>
       <c r="B1" s="29"/>
       <c r="C1" s="29"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>24</v>
       </c>
@@ -3177,32 +3205,57 @@
       <c r="C2" s="6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E2" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>56</v>
       </c>
       <c r="B3" s="9">
         <v>404760</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E3" t="s">
+        <v>159</v>
+      </c>
+      <c r="F3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>51</v>
       </c>
       <c r="B4" s="13">
         <v>4000000</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F4">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>55</v>
       </c>
       <c r="B5">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E5" t="s">
+        <v>158</v>
+      </c>
+      <c r="F5">
+        <f>F4-F3</f>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>51</v>
       </c>
@@ -3210,16 +3263,28 @@
         <f>B5*B4</f>
         <v>3000000</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E6" t="s">
+        <v>161</v>
+      </c>
+      <c r="F6">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>53</v>
       </c>
       <c r="B7" s="11">
         <v>423.77600000000001</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F7">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>54</v>
       </c>
@@ -3227,16 +3292,29 @@
         <f>B7*B6</f>
         <v>1271328000</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E8" t="s">
+        <v>163</v>
+      </c>
+      <c r="F8">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>52</v>
       </c>
       <c r="B9" s="11">
         <v>900</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E9" t="s">
+        <v>164</v>
+      </c>
+      <c r="F9">
+        <f>F8-F7</f>
+        <v>215</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>57</v>
       </c>
@@ -3244,8 +3322,15 @@
         <f>B9*B8/1000</f>
         <v>1144195200</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E10" t="s">
+        <v>157</v>
+      </c>
+      <c r="F10">
+        <f>F9/(1+F6)^F5</f>
+        <v>27.970795392609531</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>60</v>
       </c>
@@ -3254,7 +3339,7 @@
         <v>1144.1952000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>50</v>
       </c>
@@ -3264,7 +3349,7 @@
       </c>
       <c r="C12" s="12"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>59</v>
       </c>
@@ -3272,8 +3357,14 @@
         <f>B3*B12/1000000</f>
         <v>238.20125999999999</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E13" t="s">
+        <v>159</v>
+      </c>
+      <c r="F13">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>58</v>
       </c>
@@ -3281,8 +3372,14 @@
         <f>B11-B13</f>
         <v>905.99394000000007</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E14" t="s">
+        <v>160</v>
+      </c>
+      <c r="F14">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>61</v>
       </c>
@@ -3290,27 +3387,52 @@
         <f>B14/B13</f>
         <v>3.8034808883882483</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E15" t="s">
+        <v>158</v>
+      </c>
+      <c r="F15">
+        <f>F14-F13</f>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B16" s="10"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E16" t="s">
+        <v>161</v>
+      </c>
+      <c r="F16">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>56</v>
       </c>
       <c r="B17" s="9">
         <v>404760</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E17" t="s">
+        <v>162</v>
+      </c>
+      <c r="F17">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>62</v>
       </c>
       <c r="B18" s="9">
         <v>12000000</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E18" t="s">
+        <v>163</v>
+      </c>
+      <c r="F18">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>50</v>
       </c>
@@ -3318,8 +3440,15 @@
         <f>535+0.1*535</f>
         <v>588.5</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E19" t="s">
+        <v>164</v>
+      </c>
+      <c r="F19">
+        <f>F18-F17</f>
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>59</v>
       </c>
@@ -3327,14 +3456,27 @@
         <f>B19*B17</f>
         <v>238201260</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E20" t="s">
+        <v>157</v>
+      </c>
+      <c r="F20">
+        <f>F19/(1+F16)^F15</f>
+        <v>13517.125842446225</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>63</v>
       </c>
       <c r="B21">
         <f>B20/B18</f>
         <v>19.850104999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <f>14*5</f>
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/silviculture/nutrient_application_workbook.xlsx
+++ b/silviculture/nutrient_application_workbook.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhember\Documents\Code_Python\fcgadgets\silviculture\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05D0D80A-FBEC-4B16-BCDC-69F2B7F5A7DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40B187BB-3AE9-42A2-8A14-9F6C703506A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" firstSheet="1" activeTab="5" xr2:uid="{1E81D065-865C-4E4F-B119-59A43652556F}"/>
+    <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" tabRatio="725" activeTab="4" xr2:uid="{1E81D065-865C-4E4F-B119-59A43652556F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Production Emissions" sheetId="6" r:id="rId1"/>
-    <sheet name="Transport Emissions" sheetId="9" r:id="rId2"/>
-    <sheet name="N2O Emissions" sheetId="2" r:id="rId3"/>
-    <sheet name="Footprint Response" sheetId="4" r:id="rId4"/>
-    <sheet name="Soil C Response" sheetId="8" r:id="rId5"/>
-    <sheet name="Economics" sheetId="7" r:id="rId6"/>
+    <sheet name="Readme" sheetId="10" r:id="rId1"/>
+    <sheet name="Manufacturing Emissions" sheetId="6" r:id="rId2"/>
+    <sheet name="Transport Emissions" sheetId="9" r:id="rId3"/>
+    <sheet name="N2O Emissions" sheetId="2" r:id="rId4"/>
+    <sheet name="Footprint Response" sheetId="4" r:id="rId5"/>
+    <sheet name="Soil C Response" sheetId="8" r:id="rId6"/>
+    <sheet name="Economics" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="168">
   <si>
     <t>Emissions (NH3-N ha-1)</t>
   </si>
@@ -577,29 +578,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Table 1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Greenhouse gas emissions from production of urea, expressed per standard application.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>Table 2.</t>
     </r>
     <r>
@@ -771,6 +749,35 @@
   </si>
   <si>
     <t>Name</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Table 1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Greenhouse gas emissions from manufacture of urea, expressed per standard application.</t>
+    </r>
+  </si>
+  <si>
+    <t>Readme:</t>
+  </si>
+  <si>
+    <t>2021-04-28: This workbook provides example calculations for procresses that are represented in the nutrient_application module of fcgadgets. It is supplementary material for the study, "The greenhouse gas benefit from aerial nutrient application on Crown forest lands in British Columbia, Canada."</t>
   </si>
 </sst>
 </file>
@@ -898,9 +905,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -972,13 +978,51 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1292,12 +1336,89 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{577710C3-3333-445B-AB82-7630BB380BCD}">
+  <dimension ref="A1:A19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="87.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="37" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="50" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="50"/>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="50"/>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="50"/>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="50"/>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="50"/>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="50"/>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" s="50"/>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" s="50"/>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" s="50"/>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" s="50"/>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" s="50"/>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" s="50"/>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" s="50"/>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" s="50"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="50"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="50"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="50"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62FD3A88-4C78-4B99-8994-6411E467EBFA}">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1308,35 +1429,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
-        <v>132</v>
-      </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-    </row>
-    <row r="2" spans="1:5" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A1" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+    </row>
+    <row r="2" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="21" t="s">
         <v>10</v>
       </c>
       <c r="D2"/>
       <c r="E2"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -1358,7 +1479,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B6">
         <f>2*B4/B5</f>
@@ -1367,7 +1488,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B7">
         <v>200</v>
@@ -1375,7 +1496,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B8">
         <f>B7/0.46/1000</f>
@@ -1390,7 +1511,7 @@
         <v>1.81</v>
       </c>
       <c r="C9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -1411,7 +1532,7 @@
         <v>0.44594202898550722</v>
       </c>
       <c r="C11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -1422,7 +1543,7 @@
         <v>2.6</v>
       </c>
       <c r="C12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -1443,7 +1564,7 @@
         <v>0.64057971014492743</v>
       </c>
       <c r="C14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -1454,20 +1575,20 @@
         <v>0.8</v>
       </c>
       <c r="C15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="4" t="s">
         <v>32</v>
       </c>
       <c r="B18">
@@ -1477,7 +1598,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>34</v>
       </c>
@@ -1507,13 +1628,13 @@
       <c r="C20" t="s">
         <v>42</v>
       </c>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="18"/>
-      <c r="L20" s="18"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
@@ -1549,17 +1670,17 @@
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27" s="19" t="s">
+      <c r="A27" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="20"/>
-      <c r="C27" s="21" t="s">
+      <c r="B27" s="19"/>
+      <c r="C27" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="D27" s="21" t="s">
+      <c r="D27" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="E27" s="21" t="s">
+      <c r="E27" s="20" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1644,7 +1765,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5FB36F1-226E-4D2B-813A-223DF1078A35}">
   <dimension ref="A1:F47"/>
   <sheetViews>
@@ -1655,30 +1776,30 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="72.33203125" customWidth="1"/>
-    <col min="2" max="2" width="15.5546875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" style="3" customWidth="1"/>
     <col min="3" max="3" width="12.77734375" customWidth="1"/>
-    <col min="5" max="6" width="8.88671875" style="18"/>
+    <col min="5" max="6" width="8.88671875" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
-        <v>133</v>
-      </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
+      <c r="A1" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>98</v>
       </c>
     </row>
@@ -1686,7 +1807,7 @@
       <c r="A3" t="s">
         <v>101</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <v>0.435</v>
       </c>
       <c r="C3" t="s">
@@ -1697,7 +1818,7 @@
       <c r="A4" t="s">
         <v>106</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>0.45</v>
       </c>
       <c r="C4" t="s">
@@ -1708,7 +1829,7 @@
       <c r="A5" t="s">
         <v>107</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>0.5</v>
       </c>
       <c r="C5" t="s">
@@ -1719,7 +1840,7 @@
       <c r="A6" t="s">
         <v>108</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>0.05</v>
       </c>
       <c r="C6" t="s">
@@ -1727,18 +1848,18 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="B8" s="35"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>97</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="3">
         <v>1198</v>
       </c>
     </row>
@@ -1746,7 +1867,7 @@
       <c r="A10" t="s">
         <v>100</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="3">
         <f>17/1000</f>
         <v>1.7000000000000001E-2</v>
       </c>
@@ -1758,24 +1879,24 @@
       <c r="A11" t="s">
         <v>99</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="3">
         <f>B10*B3</f>
         <v>7.3950000000000005E-3</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="B13" s="35"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>97</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="3">
         <v>516</v>
       </c>
     </row>
@@ -1783,7 +1904,7 @@
       <c r="A15" t="s">
         <v>100</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="3">
         <f>7/1000</f>
         <v>7.0000000000000001E-3</v>
       </c>
@@ -1795,7 +1916,7 @@
       <c r="A16" t="s">
         <v>99</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="3">
         <f>B3*B15</f>
         <v>3.045E-3</v>
       </c>
@@ -1804,24 +1925,24 @@
       <c r="A17" t="s">
         <v>109</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="3">
         <f>B4*B16</f>
         <v>1.3702499999999999E-3</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="B19" s="35"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>116</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="3">
         <v>1000</v>
       </c>
     </row>
@@ -1829,7 +1950,7 @@
       <c r="A21" t="s">
         <v>115</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="3">
         <v>11374</v>
       </c>
     </row>
@@ -1837,7 +1958,7 @@
       <c r="A22" t="s">
         <v>117</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22" s="3">
         <v>84</v>
       </c>
       <c r="C22" t="s">
@@ -1848,7 +1969,7 @@
       <c r="A23" t="s">
         <v>118</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23" s="3">
         <f>B22/B20</f>
         <v>8.4000000000000005E-2</v>
       </c>
@@ -1860,7 +1981,7 @@
       <c r="A24" t="s">
         <v>119</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B24" s="3">
         <f>B23/B21</f>
         <v>7.3852646386495524E-6</v>
       </c>
@@ -1869,18 +1990,18 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="B26" s="35"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>97</v>
       </c>
-      <c r="B27" s="4">
+      <c r="B27" s="3">
         <v>72</v>
       </c>
     </row>
@@ -1888,7 +2009,7 @@
       <c r="A28" t="s">
         <v>110</v>
       </c>
-      <c r="B28" s="4">
+      <c r="B28" s="3">
         <f>0.539957*B27</f>
         <v>38.876904000000003</v>
       </c>
@@ -1897,7 +2018,7 @@
       <c r="A29" t="s">
         <v>112</v>
       </c>
-      <c r="B29" s="4">
+      <c r="B29" s="3">
         <f>B24*B28</f>
         <v>2.8711622437137334E-4</v>
       </c>
@@ -1909,24 +2030,24 @@
       <c r="A30" t="s">
         <v>111</v>
       </c>
-      <c r="B30" s="4">
+      <c r="B30" s="3">
         <f>B29*B3*(B5+B6)</f>
         <v>6.8692556680851073E-5</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="7" t="s">
+      <c r="A32" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="B32" s="35"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
+      <c r="B32" s="34"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>110</v>
       </c>
-      <c r="B33" s="4">
+      <c r="B33" s="3">
         <v>100</v>
       </c>
       <c r="C33" t="s">
@@ -1937,7 +2058,7 @@
       <c r="A34" t="s">
         <v>112</v>
       </c>
-      <c r="B34" s="4">
+      <c r="B34" s="3">
         <f>B33*B24</f>
         <v>7.3852646386495522E-4</v>
       </c>
@@ -1949,24 +2070,24 @@
       <c r="A35" t="s">
         <v>111</v>
       </c>
-      <c r="B35" s="4">
+      <c r="B35" s="3">
         <f>B34*B3*B6</f>
         <v>1.6062950589062777E-5</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="7" t="s">
+      <c r="A37" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="B37" s="35"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
+      <c r="B37" s="34"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>126</v>
       </c>
-      <c r="B38" s="4">
+      <c r="B38" s="3">
         <v>300</v>
       </c>
     </row>
@@ -1974,7 +2095,7 @@
       <c r="A39" t="s">
         <v>123</v>
       </c>
-      <c r="B39" s="4">
+      <c r="B39" s="3">
         <v>300</v>
       </c>
     </row>
@@ -1982,7 +2103,7 @@
       <c r="A40" t="s">
         <v>124</v>
       </c>
-      <c r="B40" s="4">
+      <c r="B40" s="3">
         <v>80</v>
       </c>
     </row>
@@ -1990,7 +2111,7 @@
       <c r="A41" t="s">
         <v>125</v>
       </c>
-      <c r="B41" s="4">
+      <c r="B41" s="3">
         <f>64/1000/1000</f>
         <v>6.3999999999999997E-5</v>
       </c>
@@ -2002,7 +2123,7 @@
       <c r="A42" t="s">
         <v>131</v>
       </c>
-      <c r="B42" s="4">
+      <c r="B42" s="3">
         <f>B41*B38*B3*B4</f>
         <v>3.7584000000000003E-3</v>
       </c>
@@ -2011,7 +2132,7 @@
       <c r="A43" t="s">
         <v>130</v>
       </c>
-      <c r="B43" s="4">
+      <c r="B43" s="3">
         <f>B41*B39*B3*B5</f>
         <v>4.176E-3</v>
       </c>
@@ -2020,24 +2141,24 @@
       <c r="A44" t="s">
         <v>129</v>
       </c>
-      <c r="B44" s="4">
+      <c r="B44" s="3">
         <f>B41*B40*B3*B6</f>
         <v>1.1136E-4</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="6" t="s">
+      <c r="A46" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="B46" s="35"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
+      <c r="B46" s="34"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>128</v>
       </c>
-      <c r="B47" s="4">
+      <c r="B47" s="3">
         <f>B11+B17+B30+B35+B42+B43+B44</f>
         <v>1.6895765507269917E-2</v>
       </c>
@@ -2048,12 +2169,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{983D707C-1A5E-4DB6-B6B6-4AF470A308A0}">
   <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2063,21 +2184,21 @@
     <col min="3" max="3" width="40.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
-        <v>134</v>
-      </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
+    <row r="1" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2085,112 +2206,112 @@
       <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <v>298</v>
       </c>
       <c r="C3" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="2"/>
-      <c r="L3" s="2"/>
+      <c r="J3" s="1"/>
+      <c r="L3" s="1"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="36">
         <f>(2*14+16)/(2*14)</f>
         <v>1.5714285714285714</v>
       </c>
-      <c r="J4" s="2"/>
-      <c r="L4" s="2"/>
+      <c r="J4" s="1"/>
+      <c r="L4" s="1"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>0.01</v>
       </c>
       <c r="C5" t="s">
         <v>21</v>
       </c>
-      <c r="J5" s="2"/>
-      <c r="L5" s="2"/>
+      <c r="J5" s="1"/>
+      <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="35"/>
-      <c r="C6" s="7"/>
-      <c r="J6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="6"/>
+      <c r="J6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <v>200</v>
       </c>
-      <c r="L7" s="2"/>
+      <c r="L7" s="1"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="3">
         <f>B5</f>
         <v>0.01</v>
       </c>
-      <c r="L8" s="2"/>
+      <c r="L8" s="1"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="3">
         <f>B8*B7</f>
         <v>2</v>
       </c>
-      <c r="L9" s="2"/>
+      <c r="L9" s="1"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="36">
         <f>B9*B4</f>
         <v>3.1428571428571428</v>
       </c>
-      <c r="J10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
+      <c r="J10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="36">
         <f>B10/1000*B3</f>
         <v>0.93657142857142861</v>
       </c>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="36" t="s">
+      <c r="A12" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="35"/>
-      <c r="C12" s="7"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="6"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B13">
@@ -2199,88 +2320,88 @@
       <c r="C13" t="s">
         <v>83</v>
       </c>
-      <c r="J13" s="2"/>
-      <c r="L13" s="2"/>
+      <c r="J13" s="1"/>
+      <c r="L13" s="1"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="3">
         <v>16</v>
       </c>
       <c r="C14" t="s">
         <v>83</v>
       </c>
-      <c r="L14" s="2"/>
+      <c r="L14" s="1"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="36">
         <f>B14/1000*B3</f>
         <v>4.7679999999999998</v>
       </c>
-      <c r="L15" s="2"/>
+      <c r="L15" s="1"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>18</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="7">
         <f>B14/B4</f>
         <v>10.181818181818182</v>
       </c>
-      <c r="L16" s="2"/>
+      <c r="L16" s="1"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="36">
         <f>B16/B13</f>
         <v>5.0909090909090911E-2</v>
       </c>
-      <c r="D17" s="2"/>
-      <c r="L17" s="2"/>
+      <c r="D17" s="1"/>
+      <c r="L17" s="1"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B18" s="4"/>
-      <c r="L18" s="2"/>
+      <c r="B18" s="3"/>
+      <c r="L18" s="1"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B19" s="4"/>
+      <c r="B19" s="3"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B20" s="4"/>
+      <c r="B20" s="3"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B21" s="4"/>
+      <c r="B21" s="3"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="D22" s="2"/>
+      <c r="D22" s="1"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="D23" s="2"/>
+      <c r="D23" s="1"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="D24" s="2"/>
+      <c r="D24" s="1"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="D25" s="2"/>
+      <c r="D25" s="1"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="D26" s="2"/>
+      <c r="D26" s="1"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="D27" s="2"/>
+      <c r="D27" s="1"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="D28" s="2"/>
+      <c r="D28" s="1"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="D29" s="2"/>
+      <c r="D29" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2288,11 +2409,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65A87448-68AD-4EEC-9600-55379D8CF7AC}">
   <dimension ref="A1:U41"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2301,434 +2422,458 @@
     <col min="3" max="3" width="60.6640625" customWidth="1"/>
     <col min="4" max="4" width="11.109375" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="10" max="12" width="8.88671875" style="2"/>
-    <col min="13" max="13" width="3.6640625" style="2" customWidth="1"/>
-    <col min="14" max="16" width="8.88671875" style="2"/>
-    <col min="17" max="17" width="2.77734375" style="2" customWidth="1"/>
-    <col min="18" max="21" width="8.88671875" style="2"/>
+    <col min="10" max="12" width="8.88671875" style="1"/>
+    <col min="13" max="13" width="3.6640625" style="1" customWidth="1"/>
+    <col min="14" max="16" width="8.88671875" style="1"/>
+    <col min="17" max="17" width="2.77734375" style="1" customWidth="1"/>
+    <col min="18" max="21" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
-        <v>135</v>
-      </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="23"/>
+      <c r="A1" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="22"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="39" t="s">
         <v>24</v>
       </c>
       <c r="B2" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="23"/>
+      <c r="D2" s="22"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="41" t="s">
         <v>85</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="43">
         <v>200</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="43" t="s">
         <v>91</v>
       </c>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="A5" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="43">
         <v>0.25</v>
       </c>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
+      <c r="C5" s="43"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="A6" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="43">
         <f>B5*B4</f>
         <v>50</v>
       </c>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
+      <c r="C6" s="43"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="A7" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="43">
         <v>0.71</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="A8" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="44">
         <v>0.1</v>
       </c>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
+      <c r="C8" s="43"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="A9" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="44">
         <v>0.8</v>
       </c>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
+      <c r="C9" s="43"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="A10" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="44">
         <v>0.1</v>
       </c>
-      <c r="E10" s="18"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
+      <c r="C10" s="43"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="A11" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="44">
         <v>0.2</v>
       </c>
-      <c r="E11" s="18"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="18"/>
+      <c r="C11" s="43"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="17"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="A12" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="44">
         <f>B7*B6*B9</f>
         <v>28.400000000000002</v>
       </c>
-      <c r="E12" s="18"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="18"/>
+      <c r="C12" s="43"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="17"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="A13" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13" s="44">
         <f>B7*B6*B10*B11</f>
         <v>0.71000000000000008</v>
       </c>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
+      <c r="C13" s="43"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="A14" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="43">
         <v>10</v>
       </c>
+      <c r="C14" s="43"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="41" t="s">
         <v>86</v>
       </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="42"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="A16" s="43" t="s">
+        <v>144</v>
+      </c>
+      <c r="B16" s="43">
+        <v>33</v>
+      </c>
+      <c r="C16" s="43" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="43" t="s">
+        <v>155</v>
+      </c>
+      <c r="B17" s="43">
+        <v>19</v>
+      </c>
+      <c r="C17" s="43" t="s">
+        <v>143</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="43" t="s">
         <v>145</v>
       </c>
-      <c r="B16">
-        <v>33</v>
-      </c>
-      <c r="C16" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>156</v>
-      </c>
-      <c r="B17">
-        <v>19</v>
-      </c>
-      <c r="C17" t="s">
-        <v>144</v>
-      </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>146</v>
-      </c>
-      <c r="B18">
+      <c r="B18" s="43">
         <f>B16/B11</f>
         <v>165</v>
       </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
+      <c r="C18" s="43"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>155</v>
-      </c>
-      <c r="B19">
+      <c r="A19" s="43" t="s">
+        <v>154</v>
+      </c>
+      <c r="B19" s="43">
         <f>B17/B11</f>
         <v>95</v>
       </c>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
+      <c r="C19" s="43"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="A20" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="45">
         <f>B19*B12/1000*3.667</f>
         <v>9.8935659999999999</v>
       </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
+      <c r="C20" s="43"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="A21" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="45">
         <f>B16*B13/1000*3.667</f>
         <v>8.5917810000000011E-2</v>
       </c>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
+      <c r="C21" s="43"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+      <c r="A22" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="45">
         <f>B21+B20</f>
         <v>9.9794838099999996</v>
       </c>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
+      <c r="C22" s="43"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="37" t="s">
+      <c r="A23" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="B23" s="38"/>
-      <c r="C23" s="38"/>
+      <c r="B23" s="47"/>
+      <c r="C23" s="47"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+      <c r="A24" s="43" t="s">
+        <v>144</v>
+      </c>
+      <c r="B24" s="43">
+        <v>63</v>
+      </c>
+      <c r="C24" s="43" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="43" t="s">
+        <v>155</v>
+      </c>
+      <c r="B25" s="43">
+        <v>36</v>
+      </c>
+      <c r="C25" s="43" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="43" t="s">
         <v>145</v>
       </c>
-      <c r="B24">
-        <v>63</v>
-      </c>
-      <c r="C24" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>156</v>
-      </c>
-      <c r="B25">
-        <v>36</v>
-      </c>
-      <c r="C25" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>146</v>
-      </c>
-      <c r="B26">
+      <c r="B26" s="43">
         <f>B24/B11</f>
         <v>315</v>
       </c>
+      <c r="C26" s="43"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>155</v>
-      </c>
-      <c r="B27">
+      <c r="A27" s="43" t="s">
+        <v>154</v>
+      </c>
+      <c r="B27" s="43">
         <f>B25/B11</f>
         <v>180</v>
       </c>
+      <c r="C27" s="43"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+      <c r="A28" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28" s="45">
         <f>B27*B12/1000*3.667</f>
         <v>18.745704</v>
       </c>
+      <c r="C28" s="43"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+      <c r="A29" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29" s="45">
         <f>B24*B13/1000*4.667</f>
         <v>0.20875491000000002</v>
       </c>
-      <c r="E29" s="8"/>
+      <c r="C29" s="43"/>
+      <c r="E29" s="7"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+      <c r="A30" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30" s="45">
         <f>B29+B28</f>
         <v>18.95445891</v>
       </c>
+      <c r="C30" s="43"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="41" t="s">
         <v>88</v>
       </c>
-      <c r="B31" s="39"/>
-      <c r="C31" s="7"/>
+      <c r="B31" s="48"/>
+      <c r="C31" s="42"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+      <c r="A32" s="43" t="s">
         <v>92</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="43">
         <v>0.49</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="43" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+      <c r="A33" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="43">
         <f>1-B32</f>
         <v>0.51</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="43" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+      <c r="A34" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="B34" s="8">
+      <c r="B34" s="45">
         <f>B32*B22+B33*B30</f>
         <v>14.556721111</v>
       </c>
+      <c r="C34" s="43"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="6" t="s">
+      <c r="A35" s="41" t="s">
+        <v>146</v>
+      </c>
+      <c r="B35" s="42"/>
+      <c r="C35" s="42"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="43" t="s">
         <v>147</v>
       </c>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+      <c r="B36" s="43">
+        <v>35</v>
+      </c>
+      <c r="C36" s="43" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="43" t="s">
         <v>148</v>
       </c>
-      <c r="B36">
-        <v>36</v>
-      </c>
-      <c r="C36" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
+      <c r="B37" s="43">
+        <v>64</v>
+      </c>
+      <c r="C37" s="43" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="43" t="s">
         <v>149</v>
       </c>
-      <c r="B37">
-        <v>63</v>
-      </c>
-      <c r="C37" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
+      <c r="B38" s="45">
+        <f>B36+B22</f>
+        <v>44.979483809999998</v>
+      </c>
+      <c r="C38" s="43"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="43" t="s">
         <v>150</v>
       </c>
-      <c r="B38" s="1">
-        <f>B36+B22</f>
-        <v>45.979483809999998</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
+      <c r="B39" s="45">
+        <f>B37+B30</f>
+        <v>82.95445891</v>
+      </c>
+      <c r="C39" s="43"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="43" t="s">
         <v>151</v>
       </c>
-      <c r="B39" s="1">
-        <f>B37+B30</f>
-        <v>81.95445891</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
+      <c r="B40" s="49">
+        <f>B38/B36*100-100</f>
+        <v>28.512810885714288</v>
+      </c>
+      <c r="C40" s="43"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="B40" s="41">
-        <f>B38/B36*100-100</f>
-        <v>27.720788361111119</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>153</v>
-      </c>
-      <c r="B41" s="41">
+      <c r="B41" s="49">
         <f>B39/B37*100-100</f>
-        <v>30.08644271428571</v>
-      </c>
+        <v>29.616342046874991</v>
+      </c>
+      <c r="C41" s="43"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2736,7 +2881,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB80C127-49D9-48E0-8E32-0A3A5463AC01}">
   <dimension ref="A1:D30"/>
   <sheetViews>
@@ -2753,418 +2898,418 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="32" t="s">
-        <v>136</v>
-      </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
+      <c r="A1" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="25" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="15">
+      <c r="B3" s="14">
         <v>-9.1999999999999993</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="14">
         <v>-10.9</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="15" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="B4" s="15">
+      <c r="B4" s="14">
         <v>38.200000000000003</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="14">
         <v>51.5</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="15" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B5" s="14">
         <v>246.6</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="14">
         <v>155.4</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="15" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B6" s="14">
         <v>59</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="14">
         <v>15.4</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="15" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="B7" s="15">
+      <c r="B7" s="14">
         <v>-0.1</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="14">
         <v>-0.2</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="14" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="B8" s="15">
+      <c r="B8" s="14">
         <v>1.9</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="14">
         <v>3.3</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="14" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="B9" s="15">
+      <c r="B9" s="14">
         <v>6.4</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="14">
         <v>11.3</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="14" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="B10" s="15">
+      <c r="B10" s="14">
         <v>18.7</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="14">
         <v>32.9</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="14" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="B11" s="15">
+      <c r="B11" s="14">
         <v>17.3</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="14">
         <v>30.5</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="14" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="B12" s="15">
+      <c r="B12" s="14">
         <v>7.3</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="14">
         <v>12.8</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="14" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="B13" s="15">
+      <c r="B13" s="14">
         <v>0.2</v>
       </c>
-      <c r="C13" s="15">
+      <c r="C13" s="14">
         <v>0.4</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="14" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="B14" s="15">
+      <c r="B14" s="14">
         <v>0</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="14">
         <v>0</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="D14" s="14" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="B15" s="15">
+      <c r="B15" s="14">
         <v>3.7</v>
       </c>
-      <c r="C15" s="15">
+      <c r="C15" s="14">
         <v>6.5</v>
       </c>
-      <c r="D15" s="15" t="s">
+      <c r="D15" s="14" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="B16" s="15">
+      <c r="B16" s="14">
         <v>8.5</v>
       </c>
-      <c r="C16" s="15">
+      <c r="C16" s="14">
         <v>14.9</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="D16" s="14" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="B17" s="15">
+      <c r="B17" s="14">
         <v>3</v>
       </c>
-      <c r="C17" s="15">
+      <c r="C17" s="14">
         <v>2.9</v>
       </c>
-      <c r="D17" s="15" t="s">
+      <c r="D17" s="14" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="B18" s="15">
+      <c r="B18" s="14">
         <v>17.5</v>
       </c>
-      <c r="C18" s="15">
+      <c r="C18" s="14">
         <v>14.3</v>
       </c>
-      <c r="D18" s="15" t="s">
+      <c r="D18" s="14" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="B19" s="15">
+      <c r="B19" s="14">
         <v>87.5</v>
       </c>
-      <c r="C19" s="15">
+      <c r="C19" s="14">
         <v>71.400000000000006</v>
       </c>
-      <c r="D19" s="15" t="s">
+      <c r="D19" s="14" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="B20" s="15">
+      <c r="B20" s="14">
         <v>10</v>
       </c>
-      <c r="C20" s="15">
+      <c r="C20" s="14">
         <v>6.3</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="D20" s="14" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="B21" s="15">
+      <c r="B21" s="14">
         <v>5</v>
       </c>
-      <c r="C21" s="15">
+      <c r="C21" s="14">
         <v>3.1</v>
       </c>
-      <c r="D21" s="15" t="s">
+      <c r="D21" s="14" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="B22" s="15">
+      <c r="B22" s="14">
         <v>3.4</v>
       </c>
-      <c r="C22" s="15">
+      <c r="C22" s="14">
         <v>9.8000000000000007</v>
       </c>
-      <c r="D22" s="15" t="s">
+      <c r="D22" s="14" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="B23" s="15">
+      <c r="B23" s="14">
         <v>6.8</v>
       </c>
-      <c r="C23" s="15">
+      <c r="C23" s="14">
         <v>19.600000000000001</v>
       </c>
-      <c r="D23" s="15" t="s">
+      <c r="D23" s="14" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="15" t="s">
+      <c r="A24" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="B24" s="15">
+      <c r="B24" s="14">
         <v>-9.1999999999999993</v>
       </c>
-      <c r="C24" s="15">
+      <c r="C24" s="14">
         <v>-14.2</v>
       </c>
-      <c r="D24" s="16" t="s">
+      <c r="D24" s="15" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="15" t="s">
+      <c r="A25" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="B25" s="15">
+      <c r="B25" s="14">
         <v>0.6</v>
       </c>
-      <c r="C25" s="15">
+      <c r="C25" s="14">
         <v>1.4</v>
       </c>
-      <c r="D25" s="16" t="s">
+      <c r="D25" s="15" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="15" t="s">
+      <c r="A26" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="B26" s="15">
+      <c r="B26" s="14">
         <v>38.9</v>
       </c>
-      <c r="C26" s="15">
+      <c r="C26" s="14">
         <v>11.8</v>
       </c>
-      <c r="D26" s="15" t="s">
+      <c r="D26" s="14" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="15" t="s">
+      <c r="A27" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="B27" s="15">
+      <c r="B27" s="14">
         <v>-3.96</v>
       </c>
-      <c r="C27" s="15">
+      <c r="C27" s="14">
         <v>-4.5</v>
       </c>
-      <c r="D27" s="15" t="s">
+      <c r="D27" s="14" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="27" t="s">
+      <c r="A28" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="B28" s="28">
+      <c r="B28" s="27">
         <f>AVERAGE(B3:B27)</f>
         <v>22.321599999999993</v>
       </c>
-      <c r="C28" s="28">
+      <c r="C28" s="27">
         <f>AVERAGE(C3:C27)</f>
         <v>17.828000000000003</v>
       </c>
-      <c r="D28" s="7"/>
+      <c r="D28" s="6"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="27" t="s">
+      <c r="A29" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="B29" s="28">
+      <c r="B29" s="27">
         <f>MEDIAN(B3:B27)</f>
         <v>6.4</v>
       </c>
-      <c r="C29" s="28">
+      <c r="C29" s="27">
         <f>MEDIAN(C3:C27)</f>
         <v>9.8000000000000007</v>
       </c>
-      <c r="D29" s="7"/>
+      <c r="D29" s="6"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="27" t="s">
+      <c r="A30" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="B30" s="28">
+      <c r="B30" s="27">
         <f>STDEV(B3:B27)/SQRT(COUNT(B3:B27))</f>
         <v>10.326431776110597</v>
       </c>
-      <c r="C30" s="28">
+      <c r="C30" s="27">
         <f>STDEV(C3:C27)/SQRT(COUNT(C3:C27))</f>
         <v>6.8306210552189182</v>
       </c>
-      <c r="D30" s="7"/>
+      <c r="D30" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3172,11 +3317,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB0DB444-DA86-46C3-9325-6709E921F8CA}">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
@@ -3189,26 +3334,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
-        <v>137</v>
-      </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
+      <c r="A1" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="F2" s="6" t="s">
+      <c r="E2" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3216,11 +3361,11 @@
       <c r="A3" t="s">
         <v>56</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="8">
         <v>404760</v>
       </c>
       <c r="E3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F3">
         <v>33</v>
@@ -3230,11 +3375,11 @@
       <c r="A4" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="12">
         <v>4000000</v>
       </c>
       <c r="E4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F4">
         <v>85</v>
@@ -3248,7 +3393,7 @@
         <v>0.75</v>
       </c>
       <c r="E5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F5">
         <f>F4-F3</f>
@@ -3259,12 +3404,12 @@
       <c r="A6" t="s">
         <v>51</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6" s="12">
         <f>B5*B4</f>
         <v>3000000</v>
       </c>
       <c r="E6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F6">
         <v>0.04</v>
@@ -3274,11 +3419,11 @@
       <c r="A7" t="s">
         <v>53</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="10">
         <v>423.77600000000001</v>
       </c>
       <c r="E7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F7">
         <v>585</v>
@@ -3288,12 +3433,12 @@
       <c r="A8" t="s">
         <v>54</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="8">
         <f>B7*B6</f>
         <v>1271328000</v>
       </c>
       <c r="E8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F8">
         <v>800</v>
@@ -3303,11 +3448,11 @@
       <c r="A9" t="s">
         <v>52</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="10">
         <v>900</v>
       </c>
       <c r="E9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F9">
         <f>F8-F7</f>
@@ -3318,12 +3463,12 @@
       <c r="A10" t="s">
         <v>57</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10" s="11">
         <f>B9*B8/1000</f>
         <v>1144195200</v>
       </c>
       <c r="E10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F10">
         <f>F9/(1+F6)^F5</f>
@@ -3334,7 +3479,7 @@
       <c r="A11" t="s">
         <v>60</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="8">
         <f>B10/1000000</f>
         <v>1144.1952000000001</v>
       </c>
@@ -3343,22 +3488,22 @@
       <c r="A12" t="s">
         <v>50</v>
       </c>
-      <c r="B12" s="14">
+      <c r="B12" s="13">
         <f>535+0.1*535</f>
         <v>588.5</v>
       </c>
-      <c r="C12" s="12"/>
+      <c r="C12" s="11"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>59</v>
       </c>
-      <c r="B13" s="13">
+      <c r="B13" s="12">
         <f>B3*B12/1000000</f>
         <v>238.20125999999999</v>
       </c>
       <c r="E13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F13">
         <v>33</v>
@@ -3368,12 +3513,12 @@
       <c r="A14" t="s">
         <v>58</v>
       </c>
-      <c r="B14" s="12">
+      <c r="B14" s="11">
         <f>B11-B13</f>
         <v>905.99394000000007</v>
       </c>
       <c r="E14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F14">
         <v>71</v>
@@ -3383,12 +3528,12 @@
       <c r="A15" t="s">
         <v>61</v>
       </c>
-      <c r="B15" s="10">
+      <c r="B15" s="9">
         <f>B14/B13</f>
         <v>3.8034808883882483</v>
       </c>
       <c r="E15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F15">
         <f>F14-F13</f>
@@ -3396,9 +3541,9 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B16" s="10"/>
+      <c r="B16" s="9"/>
       <c r="E16" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F16">
         <v>0.04</v>
@@ -3408,11 +3553,11 @@
       <c r="A17" t="s">
         <v>56</v>
       </c>
-      <c r="B17" s="9">
+      <c r="B17" s="8">
         <v>404760</v>
       </c>
       <c r="E17" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F17">
         <v>60000</v>
@@ -3422,11 +3567,11 @@
       <c r="A18" t="s">
         <v>62</v>
       </c>
-      <c r="B18" s="9">
+      <c r="B18" s="8">
         <v>12000000</v>
       </c>
       <c r="E18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F18">
         <v>120000</v>
@@ -3436,12 +3581,12 @@
       <c r="A19" t="s">
         <v>50</v>
       </c>
-      <c r="B19" s="14">
+      <c r="B19" s="13">
         <f>535+0.1*535</f>
         <v>588.5</v>
       </c>
       <c r="E19" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F19">
         <f>F18-F17</f>
@@ -3452,12 +3597,12 @@
       <c r="A20" t="s">
         <v>59</v>
       </c>
-      <c r="B20" s="13">
+      <c r="B20" s="12">
         <f>B19*B17</f>
         <v>238201260</v>
       </c>
       <c r="E20" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F20">
         <f>F19/(1+F16)^F15</f>

--- a/silviculture/nutrient_application_workbook.xlsx
+++ b/silviculture/nutrient_application_workbook.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhember\Documents\Code_Python\fcgadgets\silviculture\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40B187BB-3AE9-42A2-8A14-9F6C703506A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBFC800E-0188-4DB7-9B6A-DF1A51ADAA04}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" tabRatio="725" activeTab="4" xr2:uid="{1E81D065-865C-4E4F-B119-59A43652556F}"/>
+    <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" tabRatio="725" firstSheet="3" activeTab="4" xr2:uid="{1E81D065-865C-4E4F-B119-59A43652556F}"/>
   </bookViews>
   <sheets>
     <sheet name="Readme" sheetId="10" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Footprint Response" sheetId="4" r:id="rId5"/>
     <sheet name="Soil C Response" sheetId="8" r:id="rId6"/>
     <sheet name="Economics" sheetId="7" r:id="rId7"/>
+    <sheet name="Canadian N Use" sheetId="11" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="191">
   <si>
     <t>Emissions (NH3-N ha-1)</t>
   </si>
@@ -685,9 +686,6 @@
     <t>Scott and Perry (2008)</t>
   </si>
   <si>
-    <t>FCI demo 10-year response (Apr 2021)</t>
-  </si>
-  <si>
     <t>Applied NUE for ecosystem (kgC/kgN)</t>
   </si>
   <si>
@@ -713,15 +711,6 @@
   </si>
   <si>
     <t>Coastal change (%)</t>
-  </si>
-  <si>
-    <t>From demo (April 14, 2021)</t>
-  </si>
-  <si>
-    <t>Utilized NUE from VNGT config (kgC/kgN)</t>
-  </si>
-  <si>
-    <t>Applied NUE from VNGT config (kgC/kgN)</t>
   </si>
   <si>
     <t>NPV</t>
@@ -779,6 +768,156 @@
   <si>
     <t>2021-04-28: This workbook provides example calculations for procresses that are represented in the nutrient_application module of fcgadgets. It is supplementary material for the study, "The greenhouse gas benefit from aerial nutrient application on Crown forest lands in British Columbia, Canada."</t>
   </si>
+  <si>
+    <t>Metric tonnes x 1000</t>
+  </si>
+  <si>
+    <t>Urea</t>
+  </si>
+  <si>
+    <t>Ammonia</t>
+  </si>
+  <si>
+    <t>Urea ammonium nitrate</t>
+  </si>
+  <si>
+    <t>N content</t>
+  </si>
+  <si>
+    <t>Table 1. Fertilizer shipments to Canadian agriculture and export markets, by product type and fertilizer year, cumulative data (x 1,000), 2019-2020 (CANSIM 001-0068).</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>Ammonium sulphate</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>N weighted</t>
+  </si>
+  <si>
+    <t>FLNR treatment area (ha/yr)</t>
+  </si>
+  <si>
+    <t>N (t/yr)</t>
+  </si>
+  <si>
+    <t>Urea (t/yr)</t>
+  </si>
+  <si>
+    <t>Percent of Urea used by FLNR</t>
+  </si>
+  <si>
+    <t>Percent of N used by FLNR</t>
+  </si>
+  <si>
+    <t>FLNR operations:</t>
+  </si>
+  <si>
+    <t>Applied NUE from NGT+T config (kgC/kgN)</t>
+  </si>
+  <si>
+    <t>Utilized NUE from NGT+T config (kgC/kgN)</t>
+  </si>
+  <si>
+    <t>Quantified by running NM demo with NGT+T specification (Aug 2021)</t>
+  </si>
+  <si>
+    <t>Quantified by running NM demo with NGT+T+D specification (Aug 2021)</t>
+  </si>
+  <si>
+    <t>Results from Liue and Greaver ()</t>
+  </si>
+  <si>
+    <r>
+      <t>kg N</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">O-N per kg of N applied </t>
+    </r>
+  </si>
+  <si>
+    <t>Liu and Greaver (2009)</t>
+  </si>
+  <si>
+    <r>
+      <t>kg N</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>O-N</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>kg N</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>O</t>
+    </r>
+  </si>
+  <si>
+    <t>tCO2e</t>
+  </si>
+  <si>
+    <t>From demo (Aug 14, 2021)</t>
+  </si>
 </sst>
 </file>
 
@@ -787,7 +926,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -866,8 +1005,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF505050"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -892,6 +1058,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -905,7 +1077,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1023,6 +1195,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1350,12 +1541,12 @@
   <sheetData>
     <row r="1" spans="1:1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="37" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="50" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
@@ -1430,7 +1621,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="28" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B1" s="28"/>
       <c r="C1" s="28"/>
@@ -2174,7 +2365,7 @@
   <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2298,6 +2489,7 @@
         <f>B10/1000*B3</f>
         <v>0.93657142857142861</v>
       </c>
+      <c r="D11" s="7"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
     </row>
@@ -2367,22 +2559,59 @@
       <c r="L17" s="1"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B18" s="3"/>
+      <c r="A18" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="B18" s="33"/>
+      <c r="C18" s="5"/>
       <c r="L18" s="1"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B19" s="3"/>
+    <row r="19" spans="1:12" ht="19.8" x14ac:dyDescent="0.45">
+      <c r="A19" s="58" t="s">
+        <v>185</v>
+      </c>
+      <c r="B19" s="58">
+        <v>8.6999999999999994E-3</v>
+      </c>
+      <c r="C19" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B20" s="3"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B21" s="3"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="19.8" x14ac:dyDescent="0.45">
+      <c r="A21" s="58" t="s">
+        <v>187</v>
+      </c>
+      <c r="B21" s="3">
+        <f>B19*B20</f>
+        <v>1.7399999999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="19.8" x14ac:dyDescent="0.45">
+      <c r="A22" s="58" t="s">
+        <v>188</v>
+      </c>
+      <c r="B22">
+        <f>B21*B4</f>
+        <v>2.734285714285714</v>
+      </c>
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A23" s="58" t="s">
+        <v>189</v>
+      </c>
+      <c r="B23">
+        <f>B22/1000*B3</f>
+        <v>0.81481714285714268</v>
+      </c>
       <c r="D23" s="1"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
@@ -2413,7 +2642,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65A87448-68AD-4EEC-9600-55379D8CF7AC}">
   <dimension ref="A1:U41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2591,7 +2822,7 @@
         <v>45</v>
       </c>
       <c r="B14" s="43">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C14" s="43"/>
     </row>
@@ -2604,35 +2835,35 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="43" t="s">
-        <v>144</v>
-      </c>
-      <c r="B16" s="43">
-        <v>33</v>
-      </c>
-      <c r="C16" s="43" t="s">
         <v>143</v>
+      </c>
+      <c r="B16" s="56">
+        <v>30</v>
+      </c>
+      <c r="C16" s="56" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="43" t="s">
-        <v>155</v>
-      </c>
-      <c r="B17" s="43">
+        <v>180</v>
+      </c>
+      <c r="B17" s="56">
         <v>19</v>
       </c>
-      <c r="C17" s="43" t="s">
-        <v>143</v>
+      <c r="C17" s="56" t="s">
+        <v>182</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="43" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B18" s="43">
         <f>B16/B11</f>
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="C18" s="43"/>
       <c r="E18" s="1"/>
@@ -2640,7 +2871,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="43" t="s">
-        <v>154</v>
+        <v>181</v>
       </c>
       <c r="B19" s="43">
         <f>B17/B11</f>
@@ -2668,7 +2899,7 @@
       </c>
       <c r="B21" s="45">
         <f>B16*B13/1000*3.667</f>
-        <v>8.5917810000000011E-2</v>
+        <v>7.8107099999999999E-2</v>
       </c>
       <c r="C21" s="43"/>
       <c r="E21" s="1"/>
@@ -2678,9 +2909,9 @@
       <c r="A22" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="B22" s="45">
+      <c r="B22" s="57">
         <f>B21+B20</f>
-        <v>9.9794838099999996</v>
+        <v>9.9716731000000003</v>
       </c>
       <c r="C22" s="43"/>
       <c r="E22" s="1"/>
@@ -2695,39 +2926,39 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="43" t="s">
-        <v>144</v>
-      </c>
-      <c r="B24" s="43">
-        <v>63</v>
-      </c>
-      <c r="C24" s="43" t="s">
         <v>143</v>
+      </c>
+      <c r="B24" s="56">
+        <v>65</v>
+      </c>
+      <c r="C24" s="56" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="43" t="s">
-        <v>155</v>
-      </c>
-      <c r="B25" s="43">
+        <v>180</v>
+      </c>
+      <c r="B25" s="56">
         <v>36</v>
       </c>
-      <c r="C25" s="43" t="s">
-        <v>143</v>
+      <c r="C25" s="56" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="43" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B26" s="43">
         <f>B24/B11</f>
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="C26" s="43"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="43" t="s">
-        <v>154</v>
+        <v>181</v>
       </c>
       <c r="B27" s="43">
         <f>B25/B11</f>
@@ -2751,7 +2982,7 @@
       </c>
       <c r="B29" s="45">
         <f>B24*B13/1000*4.667</f>
-        <v>0.20875491000000002</v>
+        <v>0.21538205000000002</v>
       </c>
       <c r="C29" s="43"/>
       <c r="E29" s="7"/>
@@ -2760,11 +2991,12 @@
       <c r="A30" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="B30" s="45">
+      <c r="B30" s="57">
         <f>B29+B28</f>
-        <v>18.95445891</v>
+        <v>18.961086049999999</v>
       </c>
       <c r="C30" s="43"/>
+      <c r="E30" s="59"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="41" t="s">
@@ -2802,76 +3034,76 @@
       </c>
       <c r="B34" s="45">
         <f>B32*B22+B33*B30</f>
-        <v>14.556721111</v>
+        <v>14.556273704500001</v>
       </c>
       <c r="C34" s="43"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="41" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B35" s="42"/>
       <c r="C35" s="42"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="43" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B36" s="43">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C36" s="43" t="s">
-        <v>153</v>
+        <v>190</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="43" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B37" s="43">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="C37" s="43" t="s">
-        <v>153</v>
+        <v>190</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="43" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B38" s="45">
         <f>B36+B22</f>
-        <v>44.979483809999998</v>
+        <v>36.971673100000004</v>
       </c>
       <c r="C38" s="43"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="43" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B39" s="45">
         <f>B37+B30</f>
-        <v>82.95445891</v>
+        <v>67.961086050000006</v>
       </c>
       <c r="C39" s="43"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="43" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B40" s="49">
         <f>B38/B36*100-100</f>
-        <v>28.512810885714288</v>
+        <v>36.932122592592606</v>
       </c>
       <c r="C40" s="43"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="43" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B41" s="49">
         <f>B39/B37*100-100</f>
-        <v>29.616342046874991</v>
+        <v>38.696093979591836</v>
       </c>
       <c r="C41" s="43"/>
     </row>
@@ -3351,7 +3583,7 @@
         <v>10</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>19</v>
@@ -3365,7 +3597,7 @@
         <v>404760</v>
       </c>
       <c r="E3" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F3">
         <v>33</v>
@@ -3379,7 +3611,7 @@
         <v>4000000</v>
       </c>
       <c r="E4" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F4">
         <v>85</v>
@@ -3393,7 +3625,7 @@
         <v>0.75</v>
       </c>
       <c r="E5" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F5">
         <f>F4-F3</f>
@@ -3409,7 +3641,7 @@
         <v>3000000</v>
       </c>
       <c r="E6" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F6">
         <v>0.04</v>
@@ -3423,7 +3655,7 @@
         <v>423.77600000000001</v>
       </c>
       <c r="E7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F7">
         <v>585</v>
@@ -3438,7 +3670,7 @@
         <v>1271328000</v>
       </c>
       <c r="E8" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F8">
         <v>800</v>
@@ -3452,7 +3684,7 @@
         <v>900</v>
       </c>
       <c r="E9" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F9">
         <f>F8-F7</f>
@@ -3468,7 +3700,7 @@
         <v>1144195200</v>
       </c>
       <c r="E10" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="F10">
         <f>F9/(1+F6)^F5</f>
@@ -3503,7 +3735,7 @@
         <v>238.20125999999999</v>
       </c>
       <c r="E13" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F13">
         <v>33</v>
@@ -3518,7 +3750,7 @@
         <v>905.99394000000007</v>
       </c>
       <c r="E14" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F14">
         <v>71</v>
@@ -3533,7 +3765,7 @@
         <v>3.8034808883882483</v>
       </c>
       <c r="E15" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F15">
         <f>F14-F13</f>
@@ -3543,7 +3775,7 @@
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B16" s="9"/>
       <c r="E16" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F16">
         <v>0.04</v>
@@ -3557,7 +3789,7 @@
         <v>404760</v>
       </c>
       <c r="E17" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F17">
         <v>60000</v>
@@ -3571,7 +3803,7 @@
         <v>12000000</v>
       </c>
       <c r="E18" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F18">
         <v>120000</v>
@@ -3586,7 +3818,7 @@
         <v>588.5</v>
       </c>
       <c r="E19" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F19">
         <f>F18-F17</f>
@@ -3602,7 +3834,7 @@
         <v>238201260</v>
       </c>
       <c r="E20" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="F20">
         <f>F19/(1+F16)^F15</f>
@@ -3623,6 +3855,200 @@
         <f>14*5</f>
         <v>70</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA210C34-96DC-4A55-9AF8-528092271EF1}">
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.21875" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="51"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="55" t="s">
+        <v>170</v>
+      </c>
+      <c r="B2" s="55" t="s">
+        <v>164</v>
+      </c>
+      <c r="C2" s="55" t="s">
+        <v>168</v>
+      </c>
+      <c r="D2" s="55" t="s">
+        <v>173</v>
+      </c>
+      <c r="E2" s="51"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="51" t="s">
+        <v>165</v>
+      </c>
+      <c r="B3" s="51">
+        <f>714+1570+2155+2979</f>
+        <v>7418</v>
+      </c>
+      <c r="C3" s="51">
+        <v>0.46</v>
+      </c>
+      <c r="D3" s="51">
+        <f>C4*B3</f>
+        <v>6082.7599999999993</v>
+      </c>
+      <c r="E3" s="51"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="51" t="s">
+        <v>166</v>
+      </c>
+      <c r="B4" s="51">
+        <f>26+185+211+488</f>
+        <v>910</v>
+      </c>
+      <c r="C4" s="51">
+        <v>0.82</v>
+      </c>
+      <c r="D4" s="51">
+        <f>C3*B4</f>
+        <v>418.6</v>
+      </c>
+      <c r="E4" s="51"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="53" t="s">
+        <v>167</v>
+      </c>
+      <c r="B5" s="51">
+        <f>315+677+943+1438</f>
+        <v>3373</v>
+      </c>
+      <c r="C5" s="51">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D5" s="51">
+        <f>C5*B5</f>
+        <v>944.44</v>
+      </c>
+      <c r="E5" s="51"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="51" t="s">
+        <v>171</v>
+      </c>
+      <c r="B6" s="51">
+        <f>150+378+562+872</f>
+        <v>1962</v>
+      </c>
+      <c r="C6" s="51">
+        <v>0.2</v>
+      </c>
+      <c r="D6" s="51">
+        <f>C6*B6</f>
+        <v>392.40000000000003</v>
+      </c>
+      <c r="E6" s="51"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="51" t="s">
+        <v>172</v>
+      </c>
+      <c r="B7" s="51">
+        <f>SUM(B3:B6)*1000</f>
+        <v>13663000</v>
+      </c>
+      <c r="C7" s="51">
+        <f>SUM(C3:C6)</f>
+        <v>1.76</v>
+      </c>
+      <c r="D7" s="51">
+        <f>SUM(D3:D6)/C7*1000</f>
+        <v>4453522.7272727266</v>
+      </c>
+      <c r="E7" s="51"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="51"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="55" t="s">
+        <v>179</v>
+      </c>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="51" t="s">
+        <v>174</v>
+      </c>
+      <c r="B10" s="51">
+        <v>80000</v>
+      </c>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="51" t="s">
+        <v>176</v>
+      </c>
+      <c r="B11" s="51">
+        <f>B10*0.435</f>
+        <v>34800</v>
+      </c>
+      <c r="C11" s="51"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+    </row>
+    <row r="12" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="52" t="s">
+        <v>175</v>
+      </c>
+      <c r="B12">
+        <f>B10*0.2</f>
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="51" t="s">
+        <v>177</v>
+      </c>
+      <c r="B13" s="54">
+        <f>B11/B7*100</f>
+        <v>0.25470248115348021</v>
+      </c>
+      <c r="C13" s="54"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="51" t="s">
+        <v>178</v>
+      </c>
+      <c r="B14" s="7">
+        <f>B12/D7*100</f>
+        <v>0.35926615804649031</v>
+      </c>
+      <c r="C14" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/silviculture/nutrient_application_workbook.xlsx
+++ b/silviculture/nutrient_application_workbook.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhember\Documents\Code_Python\fcgadgets\silviculture\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBFC800E-0188-4DB7-9B6A-DF1A51ADAA04}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A15EAA1-90C7-44B4-9242-E855145A15AD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" tabRatio="725" firstSheet="3" activeTab="4" xr2:uid="{1E81D065-865C-4E4F-B119-59A43652556F}"/>
+    <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" tabRatio="725" activeTab="7" xr2:uid="{1E81D065-865C-4E4F-B119-59A43652556F}"/>
   </bookViews>
   <sheets>
     <sheet name="Readme" sheetId="10" r:id="rId1"/>
-    <sheet name="Manufacturing Emissions" sheetId="6" r:id="rId2"/>
-    <sheet name="Transport Emissions" sheetId="9" r:id="rId3"/>
-    <sheet name="N2O Emissions" sheetId="2" r:id="rId4"/>
-    <sheet name="Footprint Response" sheetId="4" r:id="rId5"/>
-    <sheet name="Soil C Response" sheetId="8" r:id="rId6"/>
-    <sheet name="Economics" sheetId="7" r:id="rId7"/>
-    <sheet name="Canadian N Use" sheetId="11" r:id="rId8"/>
+    <sheet name="Manufacturing" sheetId="6" r:id="rId2"/>
+    <sheet name="Transport" sheetId="9" r:id="rId3"/>
+    <sheet name="Denitrification" sheetId="2" r:id="rId4"/>
+    <sheet name="Footprint" sheetId="4" r:id="rId5"/>
+    <sheet name="Soil C" sheetId="8" r:id="rId6"/>
+    <sheet name="Canadian N Use" sheetId="11" r:id="rId7"/>
+    <sheet name="Economics" sheetId="13" r:id="rId8"/>
+    <sheet name="Log Size" sheetId="12" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="207">
   <si>
     <t>Emissions (NH3-N ha-1)</t>
   </si>
@@ -212,48 +213,6 @@
     <t>GHG benefit (tCO2e/ha)</t>
   </si>
   <si>
-    <t>Cost ($/ha)</t>
-  </si>
-  <si>
-    <t>Total merch volume production (m3)</t>
-  </si>
-  <si>
-    <t>Log prices ($ per 1000 bd ft)</t>
-  </si>
-  <si>
-    <t>Bd ft per m3</t>
-  </si>
-  <si>
-    <t>Total merch volume production (bd ft)</t>
-  </si>
-  <si>
-    <t>Utilization ratio</t>
-  </si>
-  <si>
-    <t>Total area treated (ha)</t>
-  </si>
-  <si>
-    <t>Gross revenue ($)</t>
-  </si>
-  <si>
-    <t>Net revenue ($M)</t>
-  </si>
-  <si>
-    <t>Cost ($M)</t>
-  </si>
-  <si>
-    <t>Gross revenue ($M)</t>
-  </si>
-  <si>
-    <t>Profit ratio</t>
-  </si>
-  <si>
-    <t>GHG Benefit</t>
-  </si>
-  <si>
-    <t>Mitigation cost ($/tCO2e)</t>
-  </si>
-  <si>
     <t>Adams et al. 2005</t>
   </si>
   <si>
@@ -645,29 +604,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Table 6. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Economics.</t>
-    </r>
-  </si>
-  <si>
     <t>Liu et al. (2020)</t>
   </si>
   <si>
@@ -711,33 +647,6 @@
   </si>
   <si>
     <t>Coastal change (%)</t>
-  </si>
-  <si>
-    <t>NPV</t>
-  </si>
-  <si>
-    <t>t</t>
-  </si>
-  <si>
-    <t>Age at fert</t>
-  </si>
-  <si>
-    <t>Age at harvest</t>
-  </si>
-  <si>
-    <t>Discount rate</t>
-  </si>
-  <si>
-    <t>Costs</t>
-  </si>
-  <si>
-    <t>Gross revenue</t>
-  </si>
-  <si>
-    <t>Net revenue</t>
-  </si>
-  <si>
-    <t>Name</t>
   </si>
   <si>
     <r>
@@ -918,15 +827,196 @@
   <si>
     <t>From demo (Aug 14, 2021)</t>
   </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Roads</t>
+  </si>
+  <si>
+    <t>Manufacturing</t>
+  </si>
+  <si>
+    <t>Hauling</t>
+  </si>
+  <si>
+    <t>Overhead</t>
+  </si>
+  <si>
+    <t>Road maintenance</t>
+  </si>
+  <si>
+    <t>Ratio</t>
+  </si>
+  <si>
+    <t>Felling/skidding/piling</t>
+  </si>
+  <si>
+    <t>Delta</t>
+  </si>
+  <si>
+    <t>Lumber</t>
+  </si>
+  <si>
+    <t>Mill residues</t>
+  </si>
+  <si>
+    <t>Fertilization</t>
+  </si>
+  <si>
+    <t>Milling</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Table X.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Log-size effect on costs. Results are from TIPSY/Fancier. Interior 75% pine 25% fir, SI=18.</t>
+    </r>
+  </si>
+  <si>
+    <t>Baseline</t>
+  </si>
+  <si>
+    <t>Fertilized</t>
+  </si>
+  <si>
+    <t>Planting</t>
+  </si>
+  <si>
+    <t>Surveys</t>
+  </si>
+  <si>
+    <t>Site prep</t>
+  </si>
+  <si>
+    <t>Tree to truck</t>
+  </si>
+  <si>
+    <t>Harvest overhead</t>
+  </si>
+  <si>
+    <t>Net revenue (undisc):</t>
+  </si>
+  <si>
+    <t>Gross revenue (undisc):</t>
+  </si>
+  <si>
+    <t>Cost (undisc):</t>
+  </si>
+  <si>
+    <t>Percent</t>
+  </si>
+  <si>
+    <t>% revenue from lumber</t>
+  </si>
+  <si>
+    <t>Merch volume (m3/ha)</t>
+  </si>
+  <si>
+    <t>Cost total</t>
+  </si>
+  <si>
+    <t>Gross revenue total</t>
+  </si>
+  <si>
+    <t>FANCIER</t>
+  </si>
+  <si>
+    <t>cbrunner</t>
+  </si>
+  <si>
+    <t>% difference</t>
+  </si>
+  <si>
+    <t>Difference</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Table X. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Comparison between Fancier and cbrunner.</t>
+    </r>
+  </si>
+  <si>
+    <t>% Diff</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Table X. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Impact of fertilization on cost and revenue from TIPSY/Fancier. Interior 100% pine, SI=18. Fertilized at age 35, harvested at age 75.</t>
+    </r>
+  </si>
+  <si>
+    <t>Notes:</t>
+  </si>
+  <si>
+    <t>Walked through harvest costs with BW: 57 $/m3 "log costs" is a reasonable average (see confidential cost maps.</t>
+  </si>
+  <si>
+    <t>Still need to incorporate licensee planting costs (BW gave appraisal manual)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1032,8 +1122,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1064,6 +1162,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1077,7 +1193,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1091,19 +1207,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1214,6 +1317,40 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="3" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="3" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1540,65 +1677,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="37" t="s">
-        <v>162</v>
+      <c r="A1" s="32" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="50" t="s">
-        <v>163</v>
+      <c r="A2" s="45" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="50"/>
+      <c r="A3" s="45"/>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="50"/>
+      <c r="A4" s="45"/>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="50"/>
+      <c r="A5" s="45"/>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="50"/>
+      <c r="A6" s="45"/>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="50"/>
+      <c r="A7" s="45"/>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" s="50"/>
+      <c r="A8" s="45"/>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" s="50"/>
+      <c r="A9" s="45"/>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" s="50"/>
+      <c r="A10" s="45"/>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" s="50"/>
+      <c r="A11" s="45"/>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" s="50"/>
+      <c r="A12" s="45"/>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" s="50"/>
+      <c r="A13" s="45"/>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" s="50"/>
+      <c r="A14" s="45"/>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" s="50"/>
+      <c r="A15" s="45"/>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" s="50"/>
+      <c r="A16" s="45"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="50"/>
+      <c r="A17" s="45"/>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="50"/>
+      <c r="A18" s="45"/>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="50"/>
+      <c r="A19" s="45"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1609,7 +1746,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62FD3A88-4C78-4B99-8994-6411E467EBFA}">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1620,35 +1759,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
-        <v>161</v>
-      </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-    </row>
-    <row r="2" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+    </row>
+    <row r="2" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="16" t="s">
         <v>10</v>
       </c>
       <c r="D2"/>
       <c r="E2"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -1670,7 +1809,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="B6">
         <f>2*B4/B5</f>
@@ -1679,7 +1818,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="B7">
         <v>200</v>
@@ -1687,7 +1826,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="B8">
         <f>B7/0.46/1000</f>
@@ -1702,7 +1841,7 @@
         <v>1.81</v>
       </c>
       <c r="C9" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -1723,7 +1862,7 @@
         <v>0.44594202898550722</v>
       </c>
       <c r="C11" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -1734,7 +1873,7 @@
         <v>2.6</v>
       </c>
       <c r="C12" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -1755,7 +1894,7 @@
         <v>0.64057971014492743</v>
       </c>
       <c r="C14" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -1766,17 +1905,17 @@
         <v>0.8</v>
       </c>
       <c r="C15" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
@@ -1789,7 +1928,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>34</v>
       </c>
@@ -1819,13 +1958,13 @@
       <c r="C20" t="s">
         <v>42</v>
       </c>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
@@ -1861,17 +2000,17 @@
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27" s="18" t="s">
+      <c r="A27" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="19"/>
-      <c r="C27" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="D27" s="20" t="s">
+      <c r="B27" s="14"/>
+      <c r="C27" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="D27" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="E27" s="20" t="s">
+      <c r="E27" s="15" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1969,86 +2108,86 @@
     <col min="1" max="1" width="72.33203125" customWidth="1"/>
     <col min="2" max="2" width="15.5546875" style="3" customWidth="1"/>
     <col min="3" max="3" width="12.77734375" customWidth="1"/>
-    <col min="5" max="6" width="8.88671875" style="17"/>
+    <col min="5" max="6" width="8.88671875" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
-        <v>132</v>
-      </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
+      <c r="A1" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="28" t="s">
         <v>19</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B3" s="3">
         <v>0.435</v>
       </c>
       <c r="C3" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="B4" s="3">
         <v>0.45</v>
       </c>
       <c r="C4" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="B5" s="3">
         <v>0.5</v>
       </c>
       <c r="C5" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="B6" s="3">
         <v>0.05</v>
       </c>
       <c r="C6" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="B8" s="34"/>
+        <v>88</v>
+      </c>
+      <c r="B8" s="29"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="B9" s="3">
         <v>1198</v>
@@ -2056,19 +2195,19 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="B10" s="3">
         <f>17/1000</f>
         <v>1.7000000000000001E-2</v>
       </c>
       <c r="C10" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="B11" s="3">
         <f>B10*B3</f>
@@ -2077,15 +2216,15 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="B13" s="34"/>
+        <v>89</v>
+      </c>
+      <c r="B13" s="29"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="B14" s="3">
         <v>516</v>
@@ -2093,19 +2232,19 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="B15" s="3">
         <f>7/1000</f>
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="C15" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="B16" s="3">
         <f>B3*B15</f>
@@ -2114,7 +2253,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="B17" s="3">
         <f>B4*B16</f>
@@ -2123,15 +2262,15 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="B19" s="34"/>
+        <v>108</v>
+      </c>
+      <c r="B19" s="29"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="B20" s="3">
         <v>1000</v>
@@ -2139,7 +2278,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="B21" s="3">
         <v>11374</v>
@@ -2147,50 +2286,50 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="B22" s="3">
         <v>84</v>
       </c>
       <c r="C22" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="B23" s="3">
         <f>B22/B20</f>
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="C23" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="B24" s="3">
         <f>B23/B21</f>
         <v>7.3852646386495524E-6</v>
       </c>
       <c r="C24" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="B26" s="34"/>
+        <v>99</v>
+      </c>
+      <c r="B26" s="29"/>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="B27" s="3">
         <v>72</v>
@@ -2198,7 +2337,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="B28" s="3">
         <f>0.539957*B27</f>
@@ -2207,19 +2346,19 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="B29" s="3">
         <f>B24*B28</f>
         <v>2.8711622437137334E-4</v>
       </c>
       <c r="C29" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="B30" s="3">
         <f>B29*B3*(B5+B6)</f>
@@ -2228,38 +2367,38 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="B32" s="34"/>
+        <v>107</v>
+      </c>
+      <c r="B32" s="29"/>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="B33" s="3">
         <v>100</v>
       </c>
       <c r="C33" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="B34" s="3">
         <f>B33*B24</f>
         <v>7.3852646386495522E-4</v>
       </c>
       <c r="C34" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="B35" s="3">
         <f>B34*B3*B6</f>
@@ -2268,15 +2407,15 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="B37" s="34"/>
+        <v>106</v>
+      </c>
+      <c r="B37" s="29"/>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="B38" s="3">
         <v>300</v>
@@ -2284,7 +2423,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="B39" s="3">
         <v>300</v>
@@ -2292,7 +2431,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="B40" s="3">
         <v>80</v>
@@ -2300,19 +2439,19 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="B41" s="3">
         <f>64/1000/1000</f>
         <v>6.3999999999999997E-5</v>
       </c>
       <c r="C41" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="B42" s="3">
         <f>B41*B38*B3*B4</f>
@@ -2321,7 +2460,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="B43" s="3">
         <f>B41*B39*B3*B5</f>
@@ -2330,7 +2469,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="B44" s="3">
         <f>B41*B40*B3*B6</f>
@@ -2339,15 +2478,15 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="B46" s="34"/>
+        <v>113</v>
+      </c>
+      <c r="B46" s="29"/>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="B47" s="3">
         <f>B11+B17+B30+B35+B42+B43+B44</f>
@@ -2375,18 +2514,18 @@
     <col min="3" max="3" width="40.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
-        <v>133</v>
-      </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
+    <row r="1" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="28" t="s">
         <v>19</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -2410,7 +2549,7 @@
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="36">
+      <c r="B4" s="31">
         <f>(2*14+16)/(2*14)</f>
         <v>1.5714285714285714</v>
       </c>
@@ -2431,10 +2570,10 @@
       <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="34"/>
+      <c r="B6" s="29"/>
       <c r="C6" s="6"/>
       <c r="J6" s="1"/>
       <c r="L6" s="1"/>
@@ -2473,7 +2612,7 @@
       <c r="A10" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="36">
+      <c r="B10" s="31">
         <f>B9*B4</f>
         <v>3.1428571428571428</v>
       </c>
@@ -2485,7 +2624,7 @@
       <c r="A11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="36">
+      <c r="B11" s="31">
         <f>B10/1000*B3</f>
         <v>0.93657142857142861</v>
       </c>
@@ -2494,10 +2633,10 @@
       <c r="M11" s="1"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="35" t="s">
+      <c r="A12" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="34"/>
+      <c r="B12" s="29"/>
       <c r="C12" s="6"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
@@ -2510,7 +2649,7 @@
         <v>200</v>
       </c>
       <c r="C13" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="J13" s="1"/>
       <c r="L13" s="1"/>
@@ -2523,7 +2662,7 @@
         <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="L14" s="1"/>
     </row>
@@ -2531,7 +2670,7 @@
       <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="36">
+      <c r="B15" s="31">
         <f>B14/1000*B3</f>
         <v>4.7679999999999998</v>
       </c>
@@ -2551,7 +2690,7 @@
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="36">
+      <c r="B17" s="31">
         <f>B16/B13</f>
         <v>5.0909090909090911E-2</v>
       </c>
@@ -2560,21 +2699,21 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="B18" s="33"/>
+        <v>160</v>
+      </c>
+      <c r="B18" s="28"/>
       <c r="C18" s="5"/>
       <c r="L18" s="1"/>
     </row>
     <row r="19" spans="1:12" ht="19.8" x14ac:dyDescent="0.45">
-      <c r="A19" s="58" t="s">
-        <v>185</v>
-      </c>
-      <c r="B19" s="58">
+      <c r="A19" s="53" t="s">
+        <v>161</v>
+      </c>
+      <c r="B19" s="53">
         <v>8.6999999999999994E-3</v>
       </c>
       <c r="C19" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
@@ -2586,8 +2725,8 @@
       </c>
     </row>
     <row r="21" spans="1:12" ht="19.8" x14ac:dyDescent="0.45">
-      <c r="A21" s="58" t="s">
-        <v>187</v>
+      <c r="A21" s="53" t="s">
+        <v>163</v>
       </c>
       <c r="B21" s="3">
         <f>B19*B20</f>
@@ -2595,8 +2734,8 @@
       </c>
     </row>
     <row r="22" spans="1:12" ht="19.8" x14ac:dyDescent="0.45">
-      <c r="A22" s="58" t="s">
-        <v>188</v>
+      <c r="A22" s="53" t="s">
+        <v>164</v>
       </c>
       <c r="B22">
         <f>B21*B4</f>
@@ -2605,8 +2744,8 @@
       <c r="D22" s="1"/>
     </row>
     <row r="23" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A23" s="58" t="s">
-        <v>189</v>
+      <c r="A23" s="53" t="s">
+        <v>165</v>
       </c>
       <c r="B23">
         <f>B22/1000*B3</f>
@@ -2642,7 +2781,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65A87448-68AD-4EEC-9600-55379D8CF7AC}">
   <dimension ref="A1:U41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
@@ -2661,451 +2800,451 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
-        <v>134</v>
-      </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="22"/>
+      <c r="A1" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="17"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="22"/>
+      <c r="D2" s="17"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="41" t="s">
-        <v>85</v>
-      </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
+      <c r="A3" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="43">
+      <c r="B4" s="38">
         <v>200</v>
       </c>
-      <c r="C4" s="43" t="s">
-        <v>91</v>
-      </c>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
+      <c r="C4" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="43">
+      <c r="B5" s="38">
         <v>0.25</v>
       </c>
-      <c r="C5" s="43"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
+      <c r="C5" s="38"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="43">
+      <c r="B6" s="38">
         <f>B5*B4</f>
         <v>50</v>
       </c>
-      <c r="C6" s="43"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
+      <c r="C6" s="38"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="43">
+      <c r="B7" s="38">
         <v>0.71</v>
       </c>
-      <c r="C7" s="43" t="s">
-        <v>90</v>
-      </c>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
+      <c r="C7" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="43" t="s">
-        <v>96</v>
-      </c>
-      <c r="B8" s="44">
+      <c r="A8" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8" s="39">
         <v>0.1</v>
       </c>
-      <c r="C8" s="43"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
+      <c r="C8" s="38"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="43" t="s">
+      <c r="A9" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="44">
+      <c r="B9" s="39">
         <v>0.8</v>
       </c>
-      <c r="C9" s="43"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
+      <c r="C9" s="38"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="43" t="s">
+      <c r="A10" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="44">
+      <c r="B10" s="39">
         <v>0.1</v>
       </c>
-      <c r="C10" s="43"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
+      <c r="C10" s="38"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="43" t="s">
+      <c r="A11" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="44">
+      <c r="B11" s="39">
         <v>0.2</v>
       </c>
-      <c r="C11" s="43"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="17"/>
+      <c r="C11" s="38"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="12"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="43" t="s">
+      <c r="A12" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="44">
+      <c r="B12" s="39">
         <f>B7*B6*B9</f>
         <v>28.400000000000002</v>
       </c>
-      <c r="C12" s="43"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="17"/>
+      <c r="C12" s="38"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="12"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="43" t="s">
+      <c r="A13" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="44">
+      <c r="B13" s="39">
         <f>B7*B6*B10*B11</f>
         <v>0.71000000000000008</v>
       </c>
-      <c r="C13" s="43"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
+      <c r="C13" s="38"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="43" t="s">
+      <c r="A14" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="43">
+      <c r="B14" s="38">
         <v>9</v>
       </c>
-      <c r="C14" s="43"/>
+      <c r="C14" s="38"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="41" t="s">
-        <v>86</v>
-      </c>
-      <c r="B15" s="42"/>
-      <c r="C15" s="42"/>
+      <c r="A15" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="B15" s="37"/>
+      <c r="C15" s="37"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="43" t="s">
-        <v>143</v>
-      </c>
-      <c r="B16" s="56">
+      <c r="A16" s="38" t="s">
+        <v>128</v>
+      </c>
+      <c r="B16" s="51">
         <v>30</v>
       </c>
-      <c r="C16" s="56" t="s">
-        <v>183</v>
+      <c r="C16" s="51" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="43" t="s">
-        <v>180</v>
-      </c>
-      <c r="B17" s="56">
+      <c r="A17" s="38" t="s">
+        <v>156</v>
+      </c>
+      <c r="B17" s="51">
         <v>19</v>
       </c>
-      <c r="C17" s="56" t="s">
-        <v>182</v>
+      <c r="C17" s="51" t="s">
+        <v>158</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="43" t="s">
-        <v>144</v>
-      </c>
-      <c r="B18" s="43">
+      <c r="A18" s="38" t="s">
+        <v>129</v>
+      </c>
+      <c r="B18" s="38">
         <f>B16/B11</f>
         <v>150</v>
       </c>
-      <c r="C18" s="43"/>
+      <c r="C18" s="38"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="43" t="s">
-        <v>181</v>
-      </c>
-      <c r="B19" s="43">
+      <c r="A19" s="38" t="s">
+        <v>157</v>
+      </c>
+      <c r="B19" s="38">
         <f>B17/B11</f>
         <v>95</v>
       </c>
-      <c r="C19" s="43"/>
+      <c r="C19" s="38"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="43" t="s">
+      <c r="A20" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="B20" s="45">
+      <c r="B20" s="40">
         <f>B19*B12/1000*3.667</f>
         <v>9.8935659999999999</v>
       </c>
-      <c r="C20" s="43"/>
+      <c r="C20" s="38"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="43" t="s">
+      <c r="A21" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="B21" s="45">
+      <c r="B21" s="40">
         <f>B16*B13/1000*3.667</f>
         <v>7.8107099999999999E-2</v>
       </c>
-      <c r="C21" s="43"/>
+      <c r="C21" s="38"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="43" t="s">
+      <c r="A22" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="B22" s="57">
+      <c r="B22" s="52">
         <f>B21+B20</f>
         <v>9.9716731000000003</v>
       </c>
-      <c r="C22" s="43"/>
+      <c r="C22" s="38"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="46" t="s">
-        <v>87</v>
-      </c>
-      <c r="B23" s="47"/>
-      <c r="C23" s="47"/>
+      <c r="A23" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="B23" s="42"/>
+      <c r="C23" s="42"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="43" t="s">
-        <v>143</v>
-      </c>
-      <c r="B24" s="56">
+      <c r="A24" s="38" t="s">
+        <v>128</v>
+      </c>
+      <c r="B24" s="51">
         <v>65</v>
       </c>
-      <c r="C24" s="56" t="s">
-        <v>183</v>
+      <c r="C24" s="51" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="43" t="s">
-        <v>180</v>
-      </c>
-      <c r="B25" s="56">
+      <c r="A25" s="38" t="s">
+        <v>156</v>
+      </c>
+      <c r="B25" s="51">
         <v>36</v>
       </c>
-      <c r="C25" s="56" t="s">
-        <v>182</v>
+      <c r="C25" s="51" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="43" t="s">
-        <v>144</v>
-      </c>
-      <c r="B26" s="43">
+      <c r="A26" s="38" t="s">
+        <v>129</v>
+      </c>
+      <c r="B26" s="38">
         <f>B24/B11</f>
         <v>325</v>
       </c>
-      <c r="C26" s="43"/>
+      <c r="C26" s="38"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="43" t="s">
-        <v>181</v>
-      </c>
-      <c r="B27" s="43">
+      <c r="A27" s="38" t="s">
+        <v>157</v>
+      </c>
+      <c r="B27" s="38">
         <f>B25/B11</f>
         <v>180</v>
       </c>
-      <c r="C27" s="43"/>
+      <c r="C27" s="38"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="43" t="s">
+      <c r="A28" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="B28" s="45">
+      <c r="B28" s="40">
         <f>B27*B12/1000*3.667</f>
         <v>18.745704</v>
       </c>
-      <c r="C28" s="43"/>
+      <c r="C28" s="38"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="43" t="s">
+      <c r="A29" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="B29" s="45">
+      <c r="B29" s="40">
         <f>B24*B13/1000*4.667</f>
         <v>0.21538205000000002</v>
       </c>
-      <c r="C29" s="43"/>
+      <c r="C29" s="38"/>
       <c r="E29" s="7"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="43" t="s">
+      <c r="A30" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="B30" s="57">
+      <c r="B30" s="52">
         <f>B29+B28</f>
         <v>18.961086049999999</v>
       </c>
-      <c r="C30" s="43"/>
-      <c r="E30" s="59"/>
+      <c r="C30" s="38"/>
+      <c r="E30" s="54"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="41" t="s">
-        <v>88</v>
-      </c>
-      <c r="B31" s="48"/>
-      <c r="C31" s="42"/>
+      <c r="A31" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="B31" s="43"/>
+      <c r="C31" s="37"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="43" t="s">
-        <v>92</v>
-      </c>
-      <c r="B32" s="43">
+      <c r="A32" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="B32" s="38">
         <v>0.49</v>
       </c>
-      <c r="C32" s="43" t="s">
-        <v>89</v>
+      <c r="C32" s="38" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="43" t="s">
-        <v>93</v>
-      </c>
-      <c r="B33" s="43">
+      <c r="A33" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="B33" s="38">
         <f>1-B32</f>
         <v>0.51</v>
       </c>
-      <c r="C33" s="43" t="s">
-        <v>89</v>
+      <c r="C33" s="38" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="43" t="s">
+      <c r="A34" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="B34" s="45">
+      <c r="B34" s="40">
         <f>B32*B22+B33*B30</f>
         <v>14.556273704500001</v>
       </c>
-      <c r="C34" s="43"/>
+      <c r="C34" s="38"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="41" t="s">
-        <v>145</v>
-      </c>
-      <c r="B35" s="42"/>
-      <c r="C35" s="42"/>
+      <c r="A35" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="B35" s="37"/>
+      <c r="C35" s="37"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="43" t="s">
-        <v>146</v>
-      </c>
-      <c r="B36" s="43">
+      <c r="A36" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="B36" s="38">
         <v>27</v>
       </c>
-      <c r="C36" s="43" t="s">
-        <v>190</v>
+      <c r="C36" s="38" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="43" t="s">
-        <v>147</v>
-      </c>
-      <c r="B37" s="43">
+      <c r="A37" s="38" t="s">
+        <v>132</v>
+      </c>
+      <c r="B37" s="38">
         <v>49</v>
       </c>
-      <c r="C37" s="43" t="s">
-        <v>190</v>
+      <c r="C37" s="38" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="43" t="s">
-        <v>148</v>
-      </c>
-      <c r="B38" s="45">
+      <c r="A38" s="38" t="s">
+        <v>133</v>
+      </c>
+      <c r="B38" s="40">
         <f>B36+B22</f>
         <v>36.971673100000004</v>
       </c>
-      <c r="C38" s="43"/>
+      <c r="C38" s="38"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="43" t="s">
-        <v>149</v>
-      </c>
-      <c r="B39" s="45">
+      <c r="A39" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="B39" s="40">
         <f>B37+B30</f>
         <v>67.961086050000006</v>
       </c>
-      <c r="C39" s="43"/>
+      <c r="C39" s="38"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="43" t="s">
-        <v>150</v>
-      </c>
-      <c r="B40" s="49">
+      <c r="A40" s="38" t="s">
+        <v>135</v>
+      </c>
+      <c r="B40" s="44">
         <f>B38/B36*100-100</f>
         <v>36.932122592592606</v>
       </c>
-      <c r="C40" s="43"/>
+      <c r="C40" s="38"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="43" t="s">
-        <v>151</v>
-      </c>
-      <c r="B41" s="49">
+      <c r="A41" s="38" t="s">
+        <v>136</v>
+      </c>
+      <c r="B41" s="44">
         <f>B39/B37*100-100</f>
         <v>38.696093979591836</v>
       </c>
-      <c r="C41" s="43"/>
+      <c r="C41" s="38"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3130,414 +3269,414 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
-        <v>135</v>
-      </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
+      <c r="A1" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>94</v>
-      </c>
-      <c r="C2" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="D2" s="25" t="s">
+      <c r="A2" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" s="20" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="9">
+        <v>-9.1999999999999993</v>
+      </c>
+      <c r="C3" s="9">
+        <v>-10.9</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="9">
+        <v>38.200000000000003</v>
+      </c>
+      <c r="C4" s="9">
+        <v>51.5</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="9">
+        <v>246.6</v>
+      </c>
+      <c r="C5" s="9">
+        <v>155.4</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="9">
+        <v>59</v>
+      </c>
+      <c r="C6" s="9">
+        <v>15.4</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="9">
+        <v>-0.1</v>
+      </c>
+      <c r="C7" s="9">
+        <v>-0.2</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="9">
+        <v>1.9</v>
+      </c>
+      <c r="C8" s="9">
+        <v>3.3</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="9">
+        <v>6.4</v>
+      </c>
+      <c r="C9" s="9">
+        <v>11.3</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="9">
+        <v>18.7</v>
+      </c>
+      <c r="C10" s="9">
+        <v>32.9</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="9">
+        <v>17.3</v>
+      </c>
+      <c r="C11" s="9">
+        <v>30.5</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" s="9">
+        <v>7.3</v>
+      </c>
+      <c r="C12" s="9">
+        <v>12.8</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="C13" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="9">
+        <v>0</v>
+      </c>
+      <c r="C14" s="9">
+        <v>0</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" s="9">
+        <v>3.7</v>
+      </c>
+      <c r="C15" s="9">
+        <v>6.5</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" s="9">
+        <v>8.5</v>
+      </c>
+      <c r="C16" s="9">
+        <v>14.9</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="9">
+        <v>3</v>
+      </c>
+      <c r="C17" s="9">
+        <v>2.9</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="9">
+        <v>17.5</v>
+      </c>
+      <c r="C18" s="9">
+        <v>14.3</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" s="9">
+        <v>87.5</v>
+      </c>
+      <c r="C19" s="9">
+        <v>71.400000000000006</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="9">
+        <v>10</v>
+      </c>
+      <c r="C20" s="9">
+        <v>6.3</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" s="9">
+        <v>5</v>
+      </c>
+      <c r="C21" s="9">
+        <v>3.1</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" s="9">
+        <v>3.4</v>
+      </c>
+      <c r="C22" s="9">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23" s="9">
+        <v>6.8</v>
+      </c>
+      <c r="C23" s="9">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B24" s="9">
+        <v>-9.1999999999999993</v>
+      </c>
+      <c r="C24" s="9">
+        <v>-14.2</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B25" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="C25" s="9">
+        <v>1.4</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" s="9">
+        <v>38.9</v>
+      </c>
+      <c r="C26" s="9">
+        <v>11.8</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" s="9">
+        <v>-3.96</v>
+      </c>
+      <c r="C27" s="9">
+        <v>-4.5</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="14">
-        <v>-9.1999999999999993</v>
-      </c>
-      <c r="C3" s="14">
-        <v>-10.9</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="B4" s="14">
-        <v>38.200000000000003</v>
-      </c>
-      <c r="C4" s="14">
-        <v>51.5</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="B5" s="14">
-        <v>246.6</v>
-      </c>
-      <c r="C5" s="14">
-        <v>155.4</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="B6" s="14">
-        <v>59</v>
-      </c>
-      <c r="C6" s="14">
-        <v>15.4</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="B7" s="14">
-        <v>-0.1</v>
-      </c>
-      <c r="C7" s="14">
-        <v>-0.2</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="B8" s="14">
-        <v>1.9</v>
-      </c>
-      <c r="C8" s="14">
-        <v>3.3</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="B9" s="14">
-        <v>6.4</v>
-      </c>
-      <c r="C9" s="14">
-        <v>11.3</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="B10" s="14">
-        <v>18.7</v>
-      </c>
-      <c r="C10" s="14">
-        <v>32.9</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="B11" s="14">
-        <v>17.3</v>
-      </c>
-      <c r="C11" s="14">
-        <v>30.5</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="B12" s="14">
-        <v>7.3</v>
-      </c>
-      <c r="C12" s="14">
-        <v>12.8</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="B13" s="14">
-        <v>0.2</v>
-      </c>
-      <c r="C13" s="14">
-        <v>0.4</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="B14" s="14">
-        <v>0</v>
-      </c>
-      <c r="C14" s="14">
-        <v>0</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="B15" s="14">
-        <v>3.7</v>
-      </c>
-      <c r="C15" s="14">
-        <v>6.5</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="B16" s="14">
-        <v>8.5</v>
-      </c>
-      <c r="C16" s="14">
-        <v>14.9</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="B17" s="14">
-        <v>3</v>
-      </c>
-      <c r="C17" s="14">
-        <v>2.9</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="B18" s="14">
-        <v>17.5</v>
-      </c>
-      <c r="C18" s="14">
-        <v>14.3</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="B19" s="14">
-        <v>87.5</v>
-      </c>
-      <c r="C19" s="14">
-        <v>71.400000000000006</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="B20" s="14">
-        <v>10</v>
-      </c>
-      <c r="C20" s="14">
-        <v>6.3</v>
-      </c>
-      <c r="D20" s="14" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="B21" s="14">
-        <v>5</v>
-      </c>
-      <c r="C21" s="14">
-        <v>3.1</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="B22" s="14">
-        <v>3.4</v>
-      </c>
-      <c r="C22" s="14">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="D22" s="14" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="B23" s="14">
-        <v>6.8</v>
-      </c>
-      <c r="C23" s="14">
-        <v>19.600000000000001</v>
-      </c>
-      <c r="D23" s="14" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="B24" s="14">
-        <v>-9.1999999999999993</v>
-      </c>
-      <c r="C24" s="14">
-        <v>-14.2</v>
-      </c>
-      <c r="D24" s="15" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="B25" s="14">
-        <v>0.6</v>
-      </c>
-      <c r="C25" s="14">
-        <v>1.4</v>
-      </c>
-      <c r="D25" s="15" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="B26" s="14">
-        <v>38.9</v>
-      </c>
-      <c r="C26" s="14">
-        <v>11.8</v>
-      </c>
-      <c r="D26" s="14" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="B27" s="14">
-        <v>-3.96</v>
-      </c>
-      <c r="C27" s="14">
-        <v>-4.5</v>
-      </c>
-      <c r="D27" s="14" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="B28" s="27">
+      <c r="B28" s="22">
         <f>AVERAGE(B3:B27)</f>
         <v>22.321599999999993</v>
       </c>
-      <c r="C28" s="27">
+      <c r="C28" s="22">
         <f>AVERAGE(C3:C27)</f>
         <v>17.828000000000003</v>
       </c>
       <c r="D28" s="6"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="B29" s="27">
+      <c r="A29" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="B29" s="22">
         <f>MEDIAN(B3:B27)</f>
         <v>6.4</v>
       </c>
-      <c r="C29" s="27">
+      <c r="C29" s="22">
         <f>MEDIAN(C3:C27)</f>
         <v>9.8000000000000007</v>
       </c>
       <c r="D29" s="6"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="B30" s="27">
+      <c r="A30" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="B30" s="22">
         <f>STDEV(B3:B27)/SQRT(COUNT(B3:B27))</f>
         <v>10.326431776110597</v>
       </c>
-      <c r="C30" s="27">
+      <c r="C30" s="22">
         <f>STDEV(C3:C27)/SQRT(COUNT(C3:C27))</f>
         <v>6.8306210552189182</v>
       </c>
@@ -3550,319 +3689,6 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB0DB444-DA86-46C3-9325-6709E921F8CA}">
-  <dimension ref="A1:F25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="33.88671875" customWidth="1"/>
-    <col min="2" max="2" width="23.109375" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" customWidth="1"/>
-    <col min="5" max="5" width="10.88671875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
-        <v>136</v>
-      </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B3" s="8">
-        <v>404760</v>
-      </c>
-      <c r="E3" t="s">
-        <v>154</v>
-      </c>
-      <c r="F3">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B4" s="12">
-        <v>4000000</v>
-      </c>
-      <c r="E4" t="s">
-        <v>155</v>
-      </c>
-      <c r="F4">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B5">
-        <v>0.75</v>
-      </c>
-      <c r="E5" t="s">
-        <v>153</v>
-      </c>
-      <c r="F5">
-        <f>F4-F3</f>
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B6" s="12">
-        <f>B5*B4</f>
-        <v>3000000</v>
-      </c>
-      <c r="E6" t="s">
-        <v>156</v>
-      </c>
-      <c r="F6">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B7" s="10">
-        <v>423.77600000000001</v>
-      </c>
-      <c r="E7" t="s">
-        <v>157</v>
-      </c>
-      <c r="F7">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B8" s="8">
-        <f>B7*B6</f>
-        <v>1271328000</v>
-      </c>
-      <c r="E8" t="s">
-        <v>158</v>
-      </c>
-      <c r="F8">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B9" s="10">
-        <v>900</v>
-      </c>
-      <c r="E9" t="s">
-        <v>159</v>
-      </c>
-      <c r="F9">
-        <f>F8-F7</f>
-        <v>215</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>57</v>
-      </c>
-      <c r="B10" s="11">
-        <f>B9*B8/1000</f>
-        <v>1144195200</v>
-      </c>
-      <c r="E10" t="s">
-        <v>152</v>
-      </c>
-      <c r="F10">
-        <f>F9/(1+F6)^F5</f>
-        <v>27.970795392609531</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>60</v>
-      </c>
-      <c r="B11" s="8">
-        <f>B10/1000000</f>
-        <v>1144.1952000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>50</v>
-      </c>
-      <c r="B12" s="13">
-        <f>535+0.1*535</f>
-        <v>588.5</v>
-      </c>
-      <c r="C12" s="11"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>59</v>
-      </c>
-      <c r="B13" s="12">
-        <f>B3*B12/1000000</f>
-        <v>238.20125999999999</v>
-      </c>
-      <c r="E13" t="s">
-        <v>154</v>
-      </c>
-      <c r="F13">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>58</v>
-      </c>
-      <c r="B14" s="11">
-        <f>B11-B13</f>
-        <v>905.99394000000007</v>
-      </c>
-      <c r="E14" t="s">
-        <v>155</v>
-      </c>
-      <c r="F14">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>61</v>
-      </c>
-      <c r="B15" s="9">
-        <f>B14/B13</f>
-        <v>3.8034808883882483</v>
-      </c>
-      <c r="E15" t="s">
-        <v>153</v>
-      </c>
-      <c r="F15">
-        <f>F14-F13</f>
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B16" s="9"/>
-      <c r="E16" t="s">
-        <v>156</v>
-      </c>
-      <c r="F16">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>56</v>
-      </c>
-      <c r="B17" s="8">
-        <v>404760</v>
-      </c>
-      <c r="E17" t="s">
-        <v>157</v>
-      </c>
-      <c r="F17">
-        <v>60000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>62</v>
-      </c>
-      <c r="B18" s="8">
-        <v>12000000</v>
-      </c>
-      <c r="E18" t="s">
-        <v>158</v>
-      </c>
-      <c r="F18">
-        <v>120000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>50</v>
-      </c>
-      <c r="B19" s="13">
-        <f>535+0.1*535</f>
-        <v>588.5</v>
-      </c>
-      <c r="E19" t="s">
-        <v>159</v>
-      </c>
-      <c r="F19">
-        <f>F18-F17</f>
-        <v>60000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>59</v>
-      </c>
-      <c r="B20" s="12">
-        <f>B19*B17</f>
-        <v>238201260</v>
-      </c>
-      <c r="E20" t="s">
-        <v>152</v>
-      </c>
-      <c r="F20">
-        <f>F19/(1+F16)^F15</f>
-        <v>13517.125842446225</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>63</v>
-      </c>
-      <c r="B21">
-        <f>B20/B18</f>
-        <v>19.850104999999999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <f>14*5</f>
-        <v>70</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA210C34-96DC-4A55-9AF8-528092271EF1}">
   <dimension ref="A1:E14"/>
   <sheetViews>
@@ -3875,155 +3701,155 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
-        <v>169</v>
-      </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="51"/>
+      <c r="A1" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="46"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="55" t="s">
-        <v>170</v>
-      </c>
-      <c r="B2" s="55" t="s">
-        <v>164</v>
-      </c>
-      <c r="C2" s="55" t="s">
-        <v>168</v>
-      </c>
-      <c r="D2" s="55" t="s">
-        <v>173</v>
-      </c>
-      <c r="E2" s="51"/>
+      <c r="A2" s="50" t="s">
+        <v>146</v>
+      </c>
+      <c r="B2" s="50" t="s">
+        <v>140</v>
+      </c>
+      <c r="C2" s="50" t="s">
+        <v>144</v>
+      </c>
+      <c r="D2" s="50" t="s">
+        <v>149</v>
+      </c>
+      <c r="E2" s="46"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="51" t="s">
-        <v>165</v>
-      </c>
-      <c r="B3" s="51">
+      <c r="A3" s="46" t="s">
+        <v>141</v>
+      </c>
+      <c r="B3" s="46">
         <f>714+1570+2155+2979</f>
         <v>7418</v>
       </c>
-      <c r="C3" s="51">
+      <c r="C3" s="46">
         <v>0.46</v>
       </c>
-      <c r="D3" s="51">
+      <c r="D3" s="46">
         <f>C4*B3</f>
         <v>6082.7599999999993</v>
       </c>
-      <c r="E3" s="51"/>
+      <c r="E3" s="46"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="51" t="s">
-        <v>166</v>
-      </c>
-      <c r="B4" s="51">
+      <c r="A4" s="46" t="s">
+        <v>142</v>
+      </c>
+      <c r="B4" s="46">
         <f>26+185+211+488</f>
         <v>910</v>
       </c>
-      <c r="C4" s="51">
+      <c r="C4" s="46">
         <v>0.82</v>
       </c>
-      <c r="D4" s="51">
+      <c r="D4" s="46">
         <f>C3*B4</f>
         <v>418.6</v>
       </c>
-      <c r="E4" s="51"/>
+      <c r="E4" s="46"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="53" t="s">
-        <v>167</v>
-      </c>
-      <c r="B5" s="51">
+      <c r="A5" s="48" t="s">
+        <v>143</v>
+      </c>
+      <c r="B5" s="46">
         <f>315+677+943+1438</f>
         <v>3373</v>
       </c>
-      <c r="C5" s="51">
+      <c r="C5" s="46">
         <v>0.28000000000000003</v>
       </c>
-      <c r="D5" s="51">
+      <c r="D5" s="46">
         <f>C5*B5</f>
         <v>944.44</v>
       </c>
-      <c r="E5" s="51"/>
+      <c r="E5" s="46"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="51" t="s">
-        <v>171</v>
-      </c>
-      <c r="B6" s="51">
+      <c r="A6" s="46" t="s">
+        <v>147</v>
+      </c>
+      <c r="B6" s="46">
         <f>150+378+562+872</f>
         <v>1962</v>
       </c>
-      <c r="C6" s="51">
+      <c r="C6" s="46">
         <v>0.2</v>
       </c>
-      <c r="D6" s="51">
+      <c r="D6" s="46">
         <f>C6*B6</f>
         <v>392.40000000000003</v>
       </c>
-      <c r="E6" s="51"/>
+      <c r="E6" s="46"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="51" t="s">
-        <v>172</v>
-      </c>
-      <c r="B7" s="51">
+      <c r="A7" s="46" t="s">
+        <v>148</v>
+      </c>
+      <c r="B7" s="46">
         <f>SUM(B3:B6)*1000</f>
         <v>13663000</v>
       </c>
-      <c r="C7" s="51">
+      <c r="C7" s="46">
         <f>SUM(C3:C6)</f>
         <v>1.76</v>
       </c>
-      <c r="D7" s="51">
+      <c r="D7" s="46">
         <f>SUM(D3:D6)/C7*1000</f>
         <v>4453522.7272727266</v>
       </c>
-      <c r="E7" s="51"/>
+      <c r="E7" s="46"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="51"/>
-      <c r="C8" s="51"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
+      <c r="A8" s="46"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="55" t="s">
-        <v>179</v>
-      </c>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
+      <c r="A9" s="50" t="s">
+        <v>155</v>
+      </c>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="51" t="s">
-        <v>174</v>
-      </c>
-      <c r="B10" s="51">
+      <c r="A10" s="46" t="s">
+        <v>150</v>
+      </c>
+      <c r="B10" s="46">
         <v>80000</v>
       </c>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="51" t="s">
-        <v>176</v>
-      </c>
-      <c r="B11" s="51">
+      <c r="A11" s="46" t="s">
+        <v>152</v>
+      </c>
+      <c r="B11" s="46">
         <f>B10*0.435</f>
         <v>34800</v>
       </c>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
     </row>
     <row r="12" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="52" t="s">
-        <v>175</v>
+      <c r="A12" s="47" t="s">
+        <v>151</v>
       </c>
       <c r="B12">
         <f>B10*0.2</f>
@@ -4031,18 +3857,18 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="51" t="s">
-        <v>177</v>
-      </c>
-      <c r="B13" s="54">
+      <c r="A13" s="46" t="s">
+        <v>153</v>
+      </c>
+      <c r="B13" s="49">
         <f>B11/B7*100</f>
         <v>0.25470248115348021</v>
       </c>
-      <c r="C13" s="54"/>
+      <c r="C13" s="49"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="51" t="s">
-        <v>178</v>
+      <c r="A14" s="46" t="s">
+        <v>154</v>
       </c>
       <c r="B14" s="7">
         <f>B12/D7*100</f>
@@ -4054,4 +3880,862 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7E62C83-938F-4232-91D4-3E0E7D59BE63}">
+  <dimension ref="A1:O35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B2" s="71" t="s">
+        <v>197</v>
+      </c>
+      <c r="C2" s="71" t="s">
+        <v>197</v>
+      </c>
+      <c r="D2" s="71" t="s">
+        <v>197</v>
+      </c>
+      <c r="E2" s="71" t="s">
+        <v>197</v>
+      </c>
+      <c r="G2" s="73" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B3" s="72" t="s">
+        <v>182</v>
+      </c>
+      <c r="C3" s="72" t="s">
+        <v>183</v>
+      </c>
+      <c r="D3" s="72" t="s">
+        <v>176</v>
+      </c>
+      <c r="E3" s="72" t="s">
+        <v>192</v>
+      </c>
+      <c r="G3" s="74" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B4">
+        <v>333</v>
+      </c>
+      <c r="C4">
+        <v>348</v>
+      </c>
+      <c r="D4" s="8">
+        <f>C4-B4</f>
+        <v>15</v>
+      </c>
+      <c r="E4" s="55">
+        <f>(C4-B4)/B4*100</f>
+        <v>4.5045045045045047</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>179</v>
+      </c>
+      <c r="B6" s="8">
+        <v>0</v>
+      </c>
+      <c r="C6" s="8">
+        <v>333</v>
+      </c>
+      <c r="D6" s="8">
+        <f t="shared" ref="D6:D16" si="0">C6-B6</f>
+        <v>333</v>
+      </c>
+      <c r="E6" s="55"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>185</v>
+      </c>
+      <c r="B7" s="8">
+        <v>20</v>
+      </c>
+      <c r="C7" s="8">
+        <v>20</v>
+      </c>
+      <c r="D7" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E7" s="55">
+        <f t="shared" ref="E7:E16" si="1">(C7-B7)/B7*100</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="69">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>186</v>
+      </c>
+      <c r="B8" s="8">
+        <v>155</v>
+      </c>
+      <c r="C8" s="8">
+        <v>155</v>
+      </c>
+      <c r="D8" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E8" s="55">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>184</v>
+      </c>
+      <c r="B9" s="8">
+        <v>778</v>
+      </c>
+      <c r="C9" s="8">
+        <v>778</v>
+      </c>
+      <c r="D9" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E9" s="55">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G9" s="69">
+        <v>1949.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>169</v>
+      </c>
+      <c r="B10" s="8">
+        <v>888</v>
+      </c>
+      <c r="C10" s="8">
+        <v>888</v>
+      </c>
+      <c r="D10" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E10" s="55">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>180</v>
+      </c>
+      <c r="B11" s="8">
+        <v>16250</v>
+      </c>
+      <c r="C11" s="8">
+        <v>17081</v>
+      </c>
+      <c r="D11" s="8">
+        <f t="shared" si="0"/>
+        <v>831</v>
+      </c>
+      <c r="E11" s="55">
+        <f t="shared" si="1"/>
+        <v>5.1138461538461533</v>
+      </c>
+      <c r="G11" s="69">
+        <v>20285.439999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>187</v>
+      </c>
+      <c r="B12" s="8">
+        <v>5611</v>
+      </c>
+      <c r="C12" s="8">
+        <v>5716</v>
+      </c>
+      <c r="D12" s="8">
+        <f t="shared" si="0"/>
+        <v>105</v>
+      </c>
+      <c r="E12" s="55">
+        <f t="shared" si="1"/>
+        <v>1.8713241846373196</v>
+      </c>
+      <c r="G12" s="69">
+        <v>8005.52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>171</v>
+      </c>
+      <c r="B13" s="8">
+        <v>2252</v>
+      </c>
+      <c r="C13" s="8">
+        <v>2361</v>
+      </c>
+      <c r="D13" s="8">
+        <f t="shared" si="0"/>
+        <v>109</v>
+      </c>
+      <c r="E13" s="55">
+        <f t="shared" si="1"/>
+        <v>4.8401420959147421</v>
+      </c>
+      <c r="G13" s="69">
+        <v>3379.64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>188</v>
+      </c>
+      <c r="B14" s="8">
+        <v>1584</v>
+      </c>
+      <c r="C14" s="8">
+        <v>1584</v>
+      </c>
+      <c r="D14" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E14" s="55">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="69">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>173</v>
+      </c>
+      <c r="B15" s="8">
+        <v>257</v>
+      </c>
+      <c r="C15" s="8">
+        <v>257</v>
+      </c>
+      <c r="D15" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E15" s="55">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="57" t="s">
+        <v>195</v>
+      </c>
+      <c r="B16" s="58">
+        <f>SUM(B6:B15)</f>
+        <v>27795</v>
+      </c>
+      <c r="C16" s="58">
+        <f>SUM(C6:C15)</f>
+        <v>29173</v>
+      </c>
+      <c r="D16" s="58">
+        <f t="shared" si="0"/>
+        <v>1378</v>
+      </c>
+      <c r="E16" s="59">
+        <f t="shared" si="1"/>
+        <v>4.9577262097499544</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="55"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>177</v>
+      </c>
+      <c r="B18" s="8">
+        <f>B20-B19</f>
+        <v>42184</v>
+      </c>
+      <c r="C18" s="8">
+        <f>C20-C19</f>
+        <v>44587</v>
+      </c>
+      <c r="D18" s="8">
+        <f>C18-B18</f>
+        <v>2403</v>
+      </c>
+      <c r="E18" s="55">
+        <f>(C18-B18)/B18*100</f>
+        <v>5.6964725962450213</v>
+      </c>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>178</v>
+      </c>
+      <c r="B19" s="8">
+        <v>6718</v>
+      </c>
+      <c r="C19" s="8">
+        <v>6998</v>
+      </c>
+      <c r="D19" s="8">
+        <f>C19-B19</f>
+        <v>280</v>
+      </c>
+      <c r="E19" s="55">
+        <f>(C19-B19)/B19*100</f>
+        <v>4.1679071152128611</v>
+      </c>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A20" s="57" t="s">
+        <v>196</v>
+      </c>
+      <c r="B20" s="58">
+        <v>48902</v>
+      </c>
+      <c r="C20" s="58">
+        <v>51585</v>
+      </c>
+      <c r="D20" s="58">
+        <f>C20-B20</f>
+        <v>2683</v>
+      </c>
+      <c r="E20" s="59">
+        <f>(C20-B20)/B20*100</f>
+        <v>5.4864831704224777</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>193</v>
+      </c>
+      <c r="B21" s="7">
+        <f>B18/B20*100</f>
+        <v>86.262320559486312</v>
+      </c>
+      <c r="C21" s="7">
+        <f>C18/C20*100</f>
+        <v>86.434040903363382</v>
+      </c>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A22" s="57" t="s">
+        <v>189</v>
+      </c>
+      <c r="B22" s="58">
+        <f>B20-B16</f>
+        <v>21107</v>
+      </c>
+      <c r="C22" s="58">
+        <f>C20-C16</f>
+        <v>22412</v>
+      </c>
+      <c r="D22" s="58">
+        <f>C22-B22</f>
+        <v>1305</v>
+      </c>
+      <c r="E22" s="59">
+        <f>(C22-B22)/B22*100</f>
+        <v>6.1827829629980577</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B26" s="63" t="s">
+        <v>197</v>
+      </c>
+      <c r="C26" s="63" t="s">
+        <v>197</v>
+      </c>
+      <c r="D26" s="63" t="s">
+        <v>197</v>
+      </c>
+      <c r="E26" s="63"/>
+      <c r="F26" s="65" t="s">
+        <v>198</v>
+      </c>
+      <c r="G26" s="65" t="s">
+        <v>198</v>
+      </c>
+      <c r="H26" s="65" t="s">
+        <v>198</v>
+      </c>
+      <c r="I26" s="65"/>
+      <c r="J26" s="70" t="s">
+        <v>200</v>
+      </c>
+      <c r="K26" s="70" t="s">
+        <v>200</v>
+      </c>
+      <c r="L26" s="70" t="s">
+        <v>200</v>
+      </c>
+      <c r="M26" s="67" t="s">
+        <v>199</v>
+      </c>
+      <c r="N26" s="67" t="s">
+        <v>199</v>
+      </c>
+      <c r="O26" s="67" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B27" s="64" t="s">
+        <v>182</v>
+      </c>
+      <c r="C27" s="64" t="s">
+        <v>183</v>
+      </c>
+      <c r="D27" s="64" t="s">
+        <v>176</v>
+      </c>
+      <c r="E27" s="64" t="s">
+        <v>202</v>
+      </c>
+      <c r="F27" s="66" t="s">
+        <v>182</v>
+      </c>
+      <c r="G27" s="66" t="s">
+        <v>183</v>
+      </c>
+      <c r="H27" s="66" t="s">
+        <v>176</v>
+      </c>
+      <c r="I27" s="66" t="s">
+        <v>202</v>
+      </c>
+      <c r="J27" s="70" t="s">
+        <v>182</v>
+      </c>
+      <c r="K27" s="70" t="s">
+        <v>183</v>
+      </c>
+      <c r="L27" s="70" t="s">
+        <v>176</v>
+      </c>
+      <c r="M27" s="68" t="s">
+        <v>182</v>
+      </c>
+      <c r="N27" s="68" t="s">
+        <v>183</v>
+      </c>
+      <c r="O27" s="68" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A28" s="60" t="s">
+        <v>195</v>
+      </c>
+      <c r="B28" s="75">
+        <f>B16</f>
+        <v>27795</v>
+      </c>
+      <c r="C28" s="61">
+        <f>C16</f>
+        <v>29173</v>
+      </c>
+      <c r="D28" s="61">
+        <f>C28-B28</f>
+        <v>1378</v>
+      </c>
+      <c r="E28" s="62">
+        <f>(C28-B28)/B28*100</f>
+        <v>4.9577262097499544</v>
+      </c>
+      <c r="F28" s="76">
+        <v>37435.49</v>
+      </c>
+      <c r="G28" s="8">
+        <v>38813.32</v>
+      </c>
+      <c r="H28" s="8">
+        <v>1377.8300000000017</v>
+      </c>
+      <c r="I28" s="62">
+        <f>(G28-F28)/F28*100</f>
+        <v>3.6805448519573321</v>
+      </c>
+      <c r="J28" s="8">
+        <f t="shared" ref="J28:L30" si="2">F28-B28</f>
+        <v>9640.489999999998</v>
+      </c>
+      <c r="K28" s="8">
+        <f t="shared" si="2"/>
+        <v>9640.32</v>
+      </c>
+      <c r="L28" s="8">
+        <f t="shared" si="2"/>
+        <v>-0.16999999999825377</v>
+      </c>
+      <c r="M28" s="56">
+        <f t="shared" ref="M28:O30" si="3">(F28-B28)/B28*100</f>
+        <v>34.684259758949445</v>
+      </c>
+      <c r="N28" s="56">
+        <f t="shared" si="3"/>
+        <v>33.045350152538305</v>
+      </c>
+      <c r="O28" s="56">
+        <f t="shared" si="3"/>
+        <v>-1.2336719883762972E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A29" s="60" t="s">
+        <v>196</v>
+      </c>
+      <c r="B29" s="75">
+        <f>B20</f>
+        <v>48902</v>
+      </c>
+      <c r="C29" s="61">
+        <f>C20</f>
+        <v>51585</v>
+      </c>
+      <c r="D29" s="61">
+        <f>C29-B29</f>
+        <v>2683</v>
+      </c>
+      <c r="E29" s="62">
+        <f>(C29-B29)/B29*100</f>
+        <v>5.4864831704224777</v>
+      </c>
+      <c r="F29" s="76">
+        <v>79411.350000000006</v>
+      </c>
+      <c r="G29" s="8">
+        <v>81864.84</v>
+      </c>
+      <c r="H29" s="8">
+        <v>2453.4899999999907</v>
+      </c>
+      <c r="I29" s="62">
+        <f t="shared" ref="I29:I30" si="4">(G29-F29)/F29*100</f>
+        <v>3.0895961345575795</v>
+      </c>
+      <c r="J29" s="8">
+        <f t="shared" si="2"/>
+        <v>30509.350000000006</v>
+      </c>
+      <c r="K29" s="8">
+        <f t="shared" si="2"/>
+        <v>30279.839999999997</v>
+      </c>
+      <c r="L29" s="8">
+        <f t="shared" si="2"/>
+        <v>-229.51000000000931</v>
+      </c>
+      <c r="M29" s="56">
+        <f t="shared" si="3"/>
+        <v>62.388757106048843</v>
+      </c>
+      <c r="N29" s="56">
+        <f t="shared" si="3"/>
+        <v>58.698924105844718</v>
+      </c>
+      <c r="O29" s="56">
+        <f t="shared" si="3"/>
+        <v>-8.5542303391729142</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A30" s="60" t="s">
+        <v>189</v>
+      </c>
+      <c r="B30" s="61">
+        <f>B22</f>
+        <v>21107</v>
+      </c>
+      <c r="C30" s="61">
+        <f>C22</f>
+        <v>22412</v>
+      </c>
+      <c r="D30" s="61">
+        <f>C30-B30</f>
+        <v>1305</v>
+      </c>
+      <c r="E30" s="62">
+        <f>(C30-B30)/B30*100</f>
+        <v>6.1827829629980577</v>
+      </c>
+      <c r="F30" s="8">
+        <v>41975.87</v>
+      </c>
+      <c r="G30" s="8">
+        <v>43051.519999999997</v>
+      </c>
+      <c r="H30" s="8">
+        <v>1075.6499999999942</v>
+      </c>
+      <c r="I30" s="62">
+        <f t="shared" si="4"/>
+        <v>2.5625436709233047</v>
+      </c>
+      <c r="J30" s="8">
+        <f t="shared" si="2"/>
+        <v>20868.870000000003</v>
+      </c>
+      <c r="K30" s="8">
+        <f t="shared" si="2"/>
+        <v>20639.519999999997</v>
+      </c>
+      <c r="L30" s="8">
+        <f t="shared" si="2"/>
+        <v>-229.35000000000582</v>
+      </c>
+      <c r="M30" s="56">
+        <f t="shared" si="3"/>
+        <v>98.871796086606352</v>
+      </c>
+      <c r="N30" s="56">
+        <f t="shared" si="3"/>
+        <v>92.091379618061737</v>
+      </c>
+      <c r="O30" s="56">
+        <f t="shared" si="3"/>
+        <v>-17.574712643678609</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="60" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>206</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{368AE183-8EDE-44A1-8E7E-254AE5E51AAF}">
+  <dimension ref="A1:E31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B3">
+        <v>888</v>
+      </c>
+      <c r="C3">
+        <v>888</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D8" si="0">C3-B3</f>
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E8" si="1">C3/B3</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B4">
+        <v>13319</v>
+      </c>
+      <c r="C4">
+        <v>14050</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>731</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="1"/>
+        <v>1.0548840003003228</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B5">
+        <v>4739</v>
+      </c>
+      <c r="C5">
+        <v>4889</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>1.0316522473095591</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>171</v>
+      </c>
+      <c r="B6">
+        <v>1796</v>
+      </c>
+      <c r="C6">
+        <v>1891</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>95</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>1.0528953229398663</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>172</v>
+      </c>
+      <c r="B7">
+        <v>1584</v>
+      </c>
+      <c r="C7">
+        <v>1584</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>173</v>
+      </c>
+      <c r="B8">
+        <v>257</v>
+      </c>
+      <c r="C8">
+        <v>257</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>